--- a/allPages/allPagesRU.xlsx
+++ b/allPages/allPagesRU.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="262">
   <si>
     <t>Pages</t>
   </si>
@@ -19,7 +19,7 @@
     <t>14.08.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/business_in_ukraine</t>
+    <t>https://t-h-logistics.com/business_in_ukraine</t>
   </si>
   <si>
     <t>x</t>
@@ -31,7 +31,7 @@
     <t>торговый посредник, внешнеторговый агент, экспортный консультант, импортный брокер, ВЭД консультации, мировая торговля, международный бизнес, торговля с Украиной, внешнеэкономическая деятельность</t>
   </si>
   <si>
-    <t>http://localhost:3000/customs</t>
+    <t>https://t-h-logistics.com/customs</t>
   </si>
   <si>
     <t>Таможенный брокер и таможенное оформление в Киеве, Одессе, Львове</t>
@@ -40,7 +40,7 @@
     <t>таможенное оформление Киев, услуги таможенного оформления Львов, таможенный брокер Одесса, расчёт таможенных платежей, сопровождение грузов, таможенные документы, таможенные услуги</t>
   </si>
   <si>
-    <t>http://localhost:3000/sea</t>
+    <t>https://t-h-logistics.com/sea</t>
   </si>
   <si>
     <t>Морские контейнерные перевозки и доставка грузов из США и Китая в Украину</t>
@@ -49,7 +49,7 @@
     <t>доставка грузов из США в Украину, морские контейнерные перевозки, доставка из Китая в Украину, контейнерные перевозки Украина, морская доставка из Китая, международные морские перевозки</t>
   </si>
   <si>
-    <t>http://localhost:3000/air</t>
+    <t>https://t-h-logistics.com/air</t>
   </si>
   <si>
     <t>Авиа доставка и авиаперевозки грузов в Украину: быстро и надежно</t>
@@ -58,7 +58,7 @@
     <t>авиаперевозки грузов Украина, авиа доставка в Украину, международная авиадоставка, транспортировка грузов самолетом, авиа логистика Украина, Экспресс-доставка авиа, Авиафрахт, Авиаперевозка грузов, Авиа логистика, Воздушные перевозки грузов, Авиаперевозки из Китая, Авиаперевозки в Европу, Грузовая авиадоставка, Авиаперевозки опасных грузов</t>
   </si>
   <si>
-    <t>http://localhost:3000/truck</t>
+    <t>https://t-h-logistics.com/truck</t>
   </si>
   <si>
     <t>Авто перевозки и доставка грузов из Европы: быстрые и безопасные решения</t>
@@ -70,7 +70,7 @@
     <t>12.08.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/usefull</t>
+    <t>https://t-h-logistics.com/usefull</t>
   </si>
   <si>
     <t>Полезные материалы по таможенному оформлению и доставке грузов: советы и инструкции</t>
@@ -82,7 +82,7 @@
     <t>09.08.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/test</t>
+    <t>https://t-h-logistics.com/test</t>
   </si>
   <si>
     <t>test</t>
@@ -91,7 +91,7 @@
     <t>23.10.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/hr_search_in_ukraine</t>
+    <t>https://t-h-logistics.com/hr_search_in_ukraine</t>
   </si>
   <si>
     <t>["Поиск Персонала в Украине","Почему Поиск Персонала Важен","Этапы Поиска Персонала","Преимущества Сотрудничества с HR-Агентствами","Заключение"]</t>
@@ -103,7 +103,7 @@
     <t>подбор персонала, рекрутинг в Украине, HR-услуги, кадровое агентство, трудоустройство в Украине, управление персоналом, поиск специалистов, кадровый консалтинг, HR-консультации, персональные ресурсы Украины</t>
   </si>
   <si>
-    <t>http://localhost:3000/tax_reporting_in_ukraine</t>
+    <t>https://t-h-logistics.com/tax_reporting_in_ukraine</t>
   </si>
   <si>
     <t>["Налоговая отчетность в Украине","Основные виды налоговых отчетов для юридических лиц:"]</t>
@@ -115,7 +115,7 @@
     <t>налоговая отчетность, налоговые декларации, налоговые обязательства, налоговые ставки, налоговые нормы, налоговое законодательство, бухгалтерия и налоги, налоговые изменения, налоговые обязанности, налоговое администрирование</t>
   </si>
   <si>
-    <t>http://localhost:3000/taxation_forms_in_ukraine</t>
+    <t>https://t-h-logistics.com/taxation_forms_in_ukraine</t>
   </si>
   <si>
     <t>["Формы Налогообложения в Украине: Как выбрать оптимальный налоговый режим для вашего бизнеса"]</t>
@@ -127,7 +127,7 @@
     <t>налоговые режимы, налоговая система, налоговые обязательства, налоговая ставка, налоговые льготы, уплата налогов, налоговая оптимизация, налоговый режим для бизнеса, налоговый учет, фискальная политика, налоговая отчетность, налоговые обязанности</t>
   </si>
   <si>
-    <t>http://localhost:3000/bank_account_in_ukraine</t>
+    <t>https://t-h-logistics.com/bank_account_in_ukraine</t>
   </si>
   <si>
     <t>["Открытие и Ведение Банковского Счета для Юридических Лиц в Украине","Зачем компании нужен банковский счет?","Как открыть банковский счет в Украине?","Заключение"]</t>
@@ -139,7 +139,7 @@
     <t>бизнес-счет, корпоративный счет, банковские услуги для компаний, банковское обслуживание юридических лиц, финансовая деятельность организаций, счет в банке Украины, открытие счета для предприятия, банковские услуги для фирм</t>
   </si>
   <si>
-    <t>http://localhost:3000/legal_address_in_ukraine</t>
+    <t>https://t-h-logistics.com/legal_address_in_ukraine</t>
   </si>
   <si>
     <t>["Юридический Адрес в Украине: Важное Решение для Вашего Бизнеса","1. Репутация Компании","2. Возможности Для Развития"," ","3. Налоговые Обязательства","4. Почтовая корреспонденция"]</t>
@@ -151,7 +151,7 @@
     <t>адрес регистрации в Украине, регистрация юридического адреса, налоговый адрес, офисное пространство, юридическая регистрация, выбор местоположения, репутация компании, налоговые обязательства</t>
   </si>
   <si>
-    <t>http://localhost:3000/main_forms_of_ownership_in_ukraine</t>
+    <t>https://t-h-logistics.com/main_forms_of_ownership_in_ukraine</t>
   </si>
   <si>
     <t>["Формы Собственности в Украине: Какая Подходит в Вашем Случае?","1. Индивидуальное Предпринимательство или Физическое Лицо Предприниматель (ФОП)","2. Общество с Ограниченной Ответственностью (ООО)","4. Кооперативы"]</t>
@@ -163,7 +163,7 @@
     <t>собственность в Украине, регистрация собственности, правила собственности, формы собственности в бизнесе, владение недвижимостью, собственность и налоги, виды собственности</t>
   </si>
   <si>
-    <t>http://localhost:3000/cost_of_opening_a_legal_entity_in_ukraine</t>
+    <t>https://t-h-logistics.com/cost_of_opening_a_legal_entity_in_ukraine</t>
   </si>
   <si>
     <t>["Стоимость Открытия Юридического Лица в Украине: Подробный Обзор и Расчеты"]</t>
@@ -175,7 +175,7 @@
     <t>Создание фирмы в Украине, регистрация юридического лица, затраты на открытие компании, стоимость регистрации бизнеса, расходы на юридическое лицо, бюджет для регистрации фирмы</t>
   </si>
   <si>
-    <t>http://localhost:3000/opening_a_company_in_ukraine</t>
+    <t>https://t-h-logistics.com/opening_a_company_in_ukraine</t>
   </si>
   <si>
     <t>["Открытие Фирмы в Украине: Полное Руководство для Предпринимателей","1. Выбор Структуры Бизнеса","2. Регистрация Фирмы","3. Регистрация в налоговой службе","4. Открытие Банковского Счета","5. Лицензии и Разрешения","6. Учет и Отчетность","7. Защита Прав Интеллектуальной Собственности","8. Найм Персонала"]</t>
@@ -190,7 +190,7 @@
     <t>22.10.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/trade_agent_in_ukraine</t>
+    <t>https://t-h-logistics.com/trade_agent_in_ukraine</t>
   </si>
   <si>
     <t>["Торговый Агент в Украине: Ваш Партнер в Мировой Торговле","Кто такой Торговый Агент?","Преимущества Работы с Торговым Агентом в Украине","Выводы"]</t>
@@ -199,7 +199,7 @@
     <t>Торговый Агент в Украине: Эффективная Поддержка вашего ВЭД Бизнеса</t>
   </si>
   <si>
-    <t>http://localhost:3000/foreign_trade_consulting</t>
+    <t>https://t-h-logistics.com/foreign_trade_consulting</t>
   </si>
   <si>
     <t>["Консультации ВЭД: Ключ к Успешной Международной Торговле","Что собой представляют Консультации ВЭД?","Преимущества Консультаций ВЭД","Выводы"]</t>
@@ -214,7 +214,7 @@
     <t>21.10.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/multimodal_transportation</t>
+    <t>https://t-h-logistics.com/multimodal_transportation</t>
   </si>
   <si>
     <t>["Мультимодальные Перевозки в Украине ","Что такое мультимодальные перевозки? ","Преимущества мультимодальных перевозок ","Мультимодальные перевозки в Украине "]</t>
@@ -229,7 +229,7 @@
     <t>19.10.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/airfreight_costs</t>
+    <t>https://t-h-logistics.com/airfreight_costs</t>
   </si>
   <si>
     <t>["Стоимость Авиаперевозки","Факторы, Влияющие на Стоимость Авиаперевозки","Как Рассчитать Стоимость Авиаперевозки","Оптимизация Стоимости Авиаперевозки","Свяжитесь с Нами"]</t>
@@ -244,7 +244,7 @@
     <t>15.10.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/cargo_delivery_from_Europe</t>
+    <t>https://t-h-logistics.com/cargo_delivery_from_Europe</t>
   </si>
   <si>
     <t>["Доставка Грузов из Европы","Развитая Инфраструктура и Логистика","Множество Поставщиков и Рыночная Вариативность","Соблюдение Норм и Правил","Сотрудничество с Профессионалами","Выводы"]</t>
@@ -259,7 +259,7 @@
     <t>13.10.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/port_forwarding</t>
+    <t>https://t-h-logistics.com/port_forwarding</t>
   </si>
   <si>
     <t>["Портовое Экспедирование в Украине: Ваш Путь к Эффективной Логистике"]</t>
@@ -271,7 +271,7 @@
     <t>морское экспедирование, портовые услуги, экспедирование грузов в порту, портовая логистика, обработка грузов в порту, морские терминалы, портовая инфраструктура, грузы в порту, морские перевозки</t>
   </si>
   <si>
-    <t>http://localhost:3000/customs_brokerage_services_cost</t>
+    <t>https://t-h-logistics.com/customs_brokerage_services_cost</t>
   </si>
   <si>
     <t>["Стоимость Услуг Таможенного Брокера в Украине","Что Влияет на Стоимость Услуг Таможенного Брокера? ","Почему Сотрудничество с Таможенным Брокером – Это Выгодно? "]</t>
@@ -283,7 +283,7 @@
     <t>услуги таможенного брокера, стоимость таможенного брокера, таможенный брокер Киев, таможенный брокер Одесса, таможенный брокер Львов, услуги таможенного оформления, стоимость таможенных услуг, таможенное оформление грузов, таможенные брокеры Украина</t>
   </si>
   <si>
-    <t>http://localhost:3000/customs_broker</t>
+    <t>https://t-h-logistics.com/customs_broker</t>
   </si>
   <si>
     <t>["Таможенный брокер: Ваш надежный партнер в Киеве, Одессе и Львове ","Кто такой таможенный брокер?"]</t>
@@ -298,7 +298,7 @@
     <t>12.10.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/fqas</t>
+    <t>https://t-h-logistics.com/fqas</t>
   </si>
   <si>
     <t>["Часто Задаваемые Вопросы","Что такое Часто Задаваемые Вопросы (FAQs)?","Популярные Вопросы и Ответы","Свяжитесь с Нами"]</t>
@@ -310,7 +310,7 @@
     <t>FAQ вопросы и ответы, Информация для клиентов, Объяснение услуг, Типичные вопросы, Руководство для пользователей, Частые запросы, Подробные ответы, Помощь и советы, Клиентская поддержка</t>
   </si>
   <si>
-    <t>http://localhost:3000/help</t>
+    <t>https://t-h-logistics.com/help</t>
   </si>
   <si>
     <t>["Помощь и Служба Поддержки","Часто Задаваемые Вопросы","Как Мы Можем Помочь?","Контакты Службы Поддержки","Заключение"]</t>
@@ -322,7 +322,7 @@
     <t>служба поддержки, клиентская поддержка, помощь клиентам, часто задаваемые вопросы, контакты службы поддержки, поддержка клиентов, обратная связь, помощь в доставке грузов, консультация клиентов, техническая поддержка</t>
   </si>
   <si>
-    <t>http://localhost:3000/cookies</t>
+    <t>https://t-h-logistics.com/cookies</t>
   </si>
   <si>
     <t>["Cookies","Что такое Cookies?","Использование Cookies","Типы Cookies","Управление Cookies","Заключение"]</t>
@@ -334,7 +334,7 @@
     <t>05.10.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/terms_conditions</t>
+    <t>https://t-h-logistics.com/terms_conditions</t>
   </si>
   <si>
     <t>["Условия использования","Правила Использования","Ответственность","Изменения в Условиях","Свяжитесь с Нами","Заключение"]</t>
@@ -346,7 +346,7 @@
     <t>условия использования, условия обслуживания, политика использования, соглашение о пользовании, правила пользования, соглашение об услугах, правила пользования сайтом, пользовательское соглашение, условия обеспечения безопасности, правила безопасности, условия доставки, соглашение о растаможке, правила обработки данных</t>
   </si>
   <si>
-    <t>http://localhost:3000/privacy_policy</t>
+    <t>https://t-h-logistics.com/privacy_policy</t>
   </si>
   <si>
     <t>["Политика Конфиденциальности","Собор Информации","Использование Информации","Защита Информации","Доступ и Контроль","Связь с Нами","Изменения в Политике Конфиденциальности","Заключение"]</t>
@@ -358,7 +358,7 @@
     <t>Конфиденциальность данных, защита личных данных, обработка персональных данных, политика конфиденциальности сайта, согласие на обработку данных, правила конфиденциальности, GDPR, защита конфиденциальности, информационная безопасность, обеспечение конфиденциальности, политика конфиденциальности клиентов</t>
   </si>
   <si>
-    <t>http://localhost:3000/about_us</t>
+    <t>https://t-h-logistics.com/about_us</t>
   </si>
   <si>
     <t>["Транс-Хоуп  ","Наши Принципы","Наши Услуги","Контакты"]</t>
@@ -370,7 +370,7 @@
     <t>О нас</t>
   </si>
   <si>
-    <t>http://localhost:3000/customs_clearance</t>
+    <t>https://t-h-logistics.com/customs_clearance</t>
   </si>
   <si>
     <t>["Таможенное оформление: Быстро, Надежно, Профессионально ","Почему Выбирают Нас","Почему Таможенное Оформление Важно"]</t>
@@ -379,7 +379,7 @@
     <t>Профессиональное Таможенное Оформление Киев, Одесса, Львов. Быстро и Надежно</t>
   </si>
   <si>
-    <t>http://localhost:3000/container_delivery</t>
+    <t>https://t-h-logistics.com/container_delivery</t>
   </si>
   <si>
     <t>["Морские контейнерные перевозки: Надежность и Экономия","Преимущества морских контейнерных перевозок "]</t>
@@ -391,7 +391,7 @@
     <t>морские контейнерные перевозки, морские перевозки, морская логистика, контейнерные перевозки, грузоперевозки по морю, международные морские перевозки, контейнерные морские перевозки, морской транспорт, грузоперевозки контейнерами, морская экспедиция, морские линии, морские перевозки товаров, морская доставка, морские грузовые перевозки, контейнерная логистика, морская транспортировка, морские грузовые услуги.</t>
   </si>
   <si>
-    <t>http://localhost:3000/truck_delivery</t>
+    <t>https://t-h-logistics.com/truck_delivery</t>
   </si>
   <si>
     <t>["Авто перевозки","Преимущества авто перевозок:","Выбор верного партнера:","Выводы:"]</t>
@@ -406,7 +406,7 @@
     <t>04.09.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/air_delivery</t>
+    <t>https://t-h-logistics.com/air_delivery</t>
   </si>
   <si>
     <t>["Авиа перевозки","Польза авиа перевозок:","Выводы:"]</t>
@@ -421,7 +421,7 @@
     <t>Page Seo</t>
   </si>
   <si>
-    <t>http://localhost:3000/sea_container_freight_rate</t>
+    <t>https://t-h-logistics.com/sea_container_freight_rate</t>
   </si>
   <si>
     <t>["Стоимость Перевозки Контейнера Морем"]</t>
@@ -433,7 +433,7 @@
     <t>цена морской перевозки контейнеров, тарифы на морскую перевозку, стоимость грузоперевозок морем, расценки на перевозку морским контейнером, тарифы на контейнерные перевозки</t>
   </si>
   <si>
-    <t>http://localhost:3000/container_freight_rate</t>
+    <t>https://t-h-logistics.com/container_freight_rate</t>
   </si>
   <si>
     <t>["Фрахт Контейнера: Ключевые Аспекты и Стоимость Грузоперевозок"]</t>
@@ -445,7 +445,7 @@
     <t>стоимость фрахта морских контейнеров, расценки на контейнерный фрахт, тарифы на грузоперевозки контейнерами, цены на морские перевозки, фрахтовые тарифы</t>
   </si>
   <si>
-    <t>http://localhost:3000/intermodal_transportation</t>
+    <t>https://t-h-logistics.com/intermodal_transportation</t>
   </si>
   <si>
     <t>["Интермодальные Перевозки"]</t>
@@ -457,7 +457,7 @@
     <t>интермодальные грузоперевозки, мультимодальные перевозки, комбинированные перевозки, перевозка грузов разными видами транспорта</t>
   </si>
   <si>
-    <t>http://localhost:3000/customs_broker_services_price</t>
+    <t>https://t-h-logistics.com/customs_broker_services_price</t>
   </si>
   <si>
     <t>["Услуги таможенного брокера цена"]</t>
@@ -472,7 +472,7 @@
     <t>08.09.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/customs_broker_kyiv</t>
+    <t>https://t-h-logistics.com/customs_broker_kyiv</t>
   </si>
   <si>
     <t>["Таможенный Брокер Киев","Преимущества Сотрудничества с Таможенным Брокером в Киеве"]</t>
@@ -490,7 +490,7 @@
     <t>11.05.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/info/customs_control</t>
+    <t>https://t-h-logistics.com/info/customs_control</t>
   </si>
   <si>
     <t>["Таможенный контроль"]</t>
@@ -503,7 +503,7 @@
 таможенные формальности, таможенная проверка, импортный контроль, экспортный контроль, таможенные процедуры, таможенные правила, таможенное законодательство, таможенный режим, регулирование таможенной деятельности</t>
   </si>
   <si>
-    <t>http://localhost:3000/info/customs_regimes_in_ukraine</t>
+    <t>https://t-h-logistics.com/info/customs_regimes_in_ukraine</t>
   </si>
   <si>
     <t>["Таможенные режимы в Украине "]</t>
@@ -515,7 +515,7 @@
     <t>таможенные режимы, Украина, таможенное оформление, временный ввоз, экспорт, импорт, таможенное законодательство, таможенные процедуры, таможенные правила</t>
   </si>
   <si>
-    <t>http://localhost:3000/info/customs_useful</t>
+    <t>https://t-h-logistics.com/info/customs_useful</t>
   </si>
   <si>
     <t>["Таможня, полезные материалы"]</t>
@@ -527,7 +527,7 @@
     <t>Таможня полезное</t>
   </si>
   <si>
-    <t>http://localhost:3000/info/certificate_of_origin_base</t>
+    <t>https://t-h-logistics.com/info/certificate_of_origin_base</t>
   </si>
   <si>
     <t>["Страна происхождения товара и Сертификат происхождения"]</t>
@@ -539,7 +539,7 @@
     <t>сертификат, происхождение товаров, международная торговля, документация, экспорт, признание, тарифные преференции, торговые соглашения, экспортер, таможня</t>
   </si>
   <si>
-    <t>http://localhost:3000/info/certificate_of_origin_EUR.1</t>
+    <t>https://t-h-logistics.com/info/certificate_of_origin_EUR.1</t>
   </si>
   <si>
     <t>Сертификат происхождения EUR.1  (Евро 1 Euro 1)</t>
@@ -548,7 +548,7 @@
     <t>сертификат происхождения, EUR.1, международные торговые соглашения, преференциальное происхождение, таможенные пошлины, торговые льготы, экспортные документы, таможенные процедуры, торговля международными партнерами, таможенное оформление</t>
   </si>
   <si>
-    <t>http://localhost:3000/info/sections_purchase_sale_agreement</t>
+    <t>https://t-h-logistics.com/info/sections_purchase_sale_agreement</t>
   </si>
   <si>
     <t>["Рекомендации по оформлению международных договоров"]</t>
@@ -560,7 +560,7 @@
     <t>договор купли-продажи, разделы, условия поставки, цена товара, платежи, риски, выполнение контракта, защита интересов</t>
   </si>
   <si>
-    <t>http://localhost:3000/info/procedure_filling_customs_declaration</t>
+    <t>https://t-h-logistics.com/info/procedure_filling_customs_declaration</t>
   </si>
   <si>
     <t>Порядок заполнения таможенной декларации - Украина</t>
@@ -569,7 +569,7 @@
     <t>таможенная декларация, таможенные формальности, импорт, экспорт, таможенный контроль, таможенное оформление, таможенные процедуры, документы, таможенные правила</t>
   </si>
   <si>
-    <t>http://localhost:3000/info/customs_clearance_package_export</t>
+    <t>https://t-h-logistics.com/info/customs_clearance_package_export</t>
   </si>
   <si>
     <t>["Документы для экспорта товаров"]</t>
@@ -581,7 +581,7 @@
     <t>экспортная документация, формализация экспорта, документы для ввоза и вывоза, таможенная документация, экспортные процедуры, экспортные формы, международная торговая документация, бумаги для глобальной торговли, экспортные лицензии, транспортные документы для экспорта, документы для международных перевозок, внешнеторговая документация, таможенные формы для экспорта.</t>
   </si>
   <si>
-    <t>http://localhost:3000/info/customs_clearance_package_import</t>
+    <t>https://t-h-logistics.com/info/customs_clearance_package_import</t>
   </si>
   <si>
     <t>["Пакет документов при импорте товаров"]</t>
@@ -593,7 +593,7 @@
     <t>импортная документация, документы для ввоза товаров, таможенная документация, импортные процедуры, импортные формы, международная торговая документация, импортные лицензии, транспортные документы для импорта, документы для международных перевозок, внешнеторговая документация</t>
   </si>
   <si>
-    <t>http://localhost:3000/info/customs_clearance_package_cost</t>
+    <t>https://t-h-logistics.com/info/customs_clearance_package_cost</t>
   </si>
   <si>
     <t>["Пакет документов для подтверждения таможенной стоимости при импорте товаров."]</t>
@@ -605,7 +605,7 @@
     <t>формальности ценообразования на границе, таможенные сертификаты стоимости товаров, документы для международного таможенного оформления, утверждение стоимости при ввозе, таможенные процедуры и стоимость, инвойс и упаковочные листы для таможни, сертификаты происхождения для таможенни</t>
   </si>
   <si>
-    <t>http://localhost:3000/info/customs_broker_license</t>
+    <t>https://t-h-logistics.com/info/customs_broker_license</t>
   </si>
   <si>
     <t>["Получение лицензии на осуществление таможенно брокерской деятельности в Украине регулируеться следующими приказами:"]</t>
@@ -617,7 +617,7 @@
     <t>лицензия, таможенный брокер, получение, условия, регулирование, законодательство, таможенные процедуры, бизнес, экспорт, импорт</t>
   </si>
   <si>
-    <t>http://localhost:3000/info/example_of_foreign_economic_contract</t>
+    <t>https://t-h-logistics.com/info/example_of_foreign_economic_contract</t>
   </si>
   <si>
     <t>["Внешнеэкономический Договор Купли-Продажи, образец"]</t>
@@ -629,7 +629,7 @@
     <t>международные договоры, торговые контракты, экспортно-импортные соглашения, мировая торговля, международная коммерция</t>
   </si>
   <si>
-    <t>http://localhost:3000/info/customs_accreditation</t>
+    <t>https://t-h-logistics.com/info/customs_accreditation</t>
   </si>
   <si>
     <t>["Аккредитация на таможне онлайн "]</t>
@@ -647,7 +647,7 @@
     <t>28.06.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/blog/konteinernie-perevozki-gdinya</t>
+    <t>https://t-h-logistics.com/blog/konteinernie-perevozki-gdinya</t>
   </si>
   <si>
     <t>["Особенности доставки в Украину через Гдыню: ","Советы по оптимизации контейнерных перевозок через Гдыню:"]</t>
@@ -662,7 +662,7 @@
     <t>26.06.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/blog/kak-raschitat-stoimost-rastamozhki</t>
+    <t>https://t-h-logistics.com/blog/kak-raschitat-stoimost-rastamozhki</t>
   </si>
   <si>
     <t>Как расчитать стоимость растаможки и узнать сумму таможенных платежей на таможню.</t>
@@ -671,7 +671,7 @@
     <t>расчет стоимости растаможки, сумма таможенных платежей, таможенные пошлины, НДС на таможне, таможенные сборы, оформление груза на таможне, импортные пошлины, таможенные платежи, как рассчитать растаможку, расчет таможенных пошлин</t>
   </si>
   <si>
-    <t>http://localhost:3000/blog/the-economics-of-low-cost-delivery-services</t>
+    <t>https://t-h-logistics.com/blog/the-economics-of-low-cost-delivery-services</t>
   </si>
   <si>
     <t>["Лоукостеры авиа доставки грузов в Украину.","Снижение расходов ","Повышение доходов "]</t>
@@ -686,7 +686,7 @@
     <t>09.06.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/blog/how-to-find-the-customs-code-of-goods</t>
+    <t>https://t-h-logistics.com/blog/how-to-find-the-customs-code-of-goods</t>
   </si>
   <si>
     <t>Как подобрать таможенный код товара</t>
@@ -695,10 +695,10 @@
     <t>таможенный код товара, код ТН ВЭД, классификация товаров, товарная номенклатура, код экспортного товара, импортный код, гармонизированная система, HS код, таможенная очистка, кодирование товаров, таможенные тарифы, классификатор товаров, товарная группа, декларирование товара, таможенная декларация</t>
   </si>
   <si>
-    <t>04.06.24</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/blog/methods-of-transportation-containers-from-china-to-ukraine</t>
+    <t>03.06.24</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/blog/methods-of-transportation-containers-from-china-to-ukraine</t>
   </si>
   <si>
     <t>["Способы доставки контейнеров из Китая в Украину"]</t>
@@ -710,10 +710,7 @@
     <t>способы доставки контейнеров, виды транспортировки контейнеров, логистика контейнерных перевозок, методы перевозки контейнеров, транспортировка грузов в контейнерах, контейнерные перевозки, варианты транспортировки контейнеров, эффективные способы доставки контейнеров</t>
   </si>
   <si>
-    <t>03.06.24</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/blog/how-choose-cargo-carrier-and-get-lot-problems</t>
+    <t>https://t-h-logistics.com/blog/how-choose-cargo-carrier-and-get-lot-problems</t>
   </si>
   <si>
     <t>Как выбрать КАРГО перевозчика и получить много проблем.</t>
@@ -725,7 +722,7 @@
     <t>30.05.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/blog/how-to-write-an-inquiry-to-a-chinese-supplier</t>
+    <t>https://t-h-logistics.com/blog/how-to-write-an-inquiry-to-a-chinese-supplier</t>
   </si>
   <si>
     <t>["Как написать запрос китайскому поставщику товаров?"]</t>
@@ -740,7 +737,7 @@
     <t>22.04.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/blog/searching-for-suppliers-in-china</t>
+    <t>https://t-h-logistics.com/blog/searching-for-suppliers-in-china</t>
   </si>
   <si>
     <t>["Поиск поставщиков в Китае"]</t>
@@ -758,7 +755,7 @@
     <t>28.09.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/news/tamozhennye_platezhi_ukraina_avgust_2024</t>
+    <t>https://t-h-logistics.com/news/tamozhennye_platezhi_ukraina_avgust_2024</t>
   </si>
   <si>
     <t>Таможенные платежи Украины в августе 2024 года достигли 51,1 млрд грн</t>
@@ -767,7 +764,7 @@
     <t>таможенные платежи, Украина, август 2024, государственный бюджет, льготы, налогооблагаемый импорт</t>
   </si>
   <si>
-    <t>http://localhost:3000/news/ogranichenie_dvizheniya_na_granitse_s_vengeiey</t>
+    <t>https://t-h-logistics.com/news/ogranichenie_dvizheniya_na_granitse_s_vengeiey</t>
   </si>
   <si>
     <t>Ограничение движения на границе с Венгрией на две недели</t>
@@ -776,7 +773,7 @@
     <t>граница, Венгрия, ограничения, Чоп-Захонь, ремонт</t>
   </si>
   <si>
-    <t>http://localhost:3000/news/collision_of_cargo_ship_pallada_near_turkey</t>
+    <t>https://t-h-logistics.com/news/collision_of_cargo_ship_pallada_near_turkey</t>
   </si>
   <si>
     <t>Крушение сухогруза Pallada у берегов Турции: все подробности инцидента</t>
@@ -785,7 +782,7 @@
     <t>сухогруз Pallada, крушение, Турция, спасательная операция, шторм, последствия</t>
   </si>
   <si>
-    <t>http://localhost:3000/news/corruption_scandal_msc_odessa_port</t>
+    <t>https://t-h-logistics.com/news/corruption_scandal_msc_odessa_port</t>
   </si>
   <si>
     <t>Коррупционный скандал: почему MSC отказалась от захода в Одессу</t>
@@ -794,7 +791,7 @@
     <t>MSC, коррупция, порт Одессы, задержка грузов, международная логистика</t>
   </si>
   <si>
-    <t>http://localhost:3000/news/odesa_ports_export_2024</t>
+    <t>https://t-h-logistics.com/news/odesa_ports_export_2024</t>
   </si>
   <si>
     <t>Экспорт портов Большой Одессы превысил 60 миллионов тонн за 2024 год</t>
@@ -2289,149 +2286,149 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>227</v>
+      </c>
+      <c r="B64" t="s">
         <v>232</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" t="s">
         <v>233</v>
       </c>
-      <c r="C64" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>234</v>
-      </c>
-      <c r="F64" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>235</v>
+      </c>
+      <c r="B65" t="s">
         <v>236</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" t="s">
         <v>237</v>
       </c>
-      <c r="C65" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>238</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>239</v>
-      </c>
-      <c r="F65" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>240</v>
+      </c>
+      <c r="B66" t="s">
         <v>241</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" t="s">
         <v>242</v>
       </c>
-      <c r="C66" t="s">
-        <v>3</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>243</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>244</v>
-      </c>
-      <c r="F66" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>246</v>
+      </c>
+      <c r="B69" t="s">
         <v>247</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" t="s">
         <v>248</v>
       </c>
-      <c r="C69" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>249</v>
-      </c>
-      <c r="F69" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B70" t="s">
+        <v>250</v>
+      </c>
+      <c r="C70" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" t="s">
         <v>251</v>
       </c>
-      <c r="C70" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>252</v>
-      </c>
-      <c r="F70" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B71" t="s">
+        <v>253</v>
+      </c>
+      <c r="C71" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" t="s">
         <v>254</v>
       </c>
-      <c r="C71" t="s">
-        <v>3</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>255</v>
-      </c>
-      <c r="F71" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B72" t="s">
+        <v>256</v>
+      </c>
+      <c r="C72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" t="s">
         <v>257</v>
       </c>
-      <c r="C72" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>258</v>
-      </c>
-      <c r="F72" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B73" t="s">
+        <v>259</v>
+      </c>
+      <c r="C73" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" t="s">
         <v>260</v>
       </c>
-      <c r="C73" t="s">
-        <v>3</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>261</v>
-      </c>
-      <c r="F73" t="s">
-        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/allPages/allPagesRU.xlsx
+++ b/allPages/allPagesRU.xlsx
@@ -11,7 +11,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="266">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Headlines</t>
+  </si>
+  <si>
+    <t>SEO Title</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
   <si>
     <t>Pages</t>
   </si>
@@ -25,6 +43,9 @@
     <t>x</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Услуги ВЭД, доставки и растаможки грузов в Украине в городах Киев, Львов, Одесса</t>
   </si>
   <si>
@@ -94,7 +115,7 @@
     <t>http://localhost:3000/hr_search_in_ukraine</t>
   </si>
   <si>
-    <t>["Поиск Персонала в Украине","Почему Поиск Персонала Важен","Этапы Поиска Персонала","Преимущества Сотрудничества с HR-Агентствами","Заключение"]</t>
+    <t>Поиск Персонала в Украине, Почему Поиск Персонала Важен, Этапы Поиска Персонала, Преимущества Сотрудничества с HR-Агентствами, Заключение</t>
   </si>
   <si>
     <t>Эффективный Поиск Персонала в Украине: Профессиональные HR-решения</t>
@@ -106,7 +127,7 @@
     <t>http://localhost:3000/tax_reporting_in_ukraine</t>
   </si>
   <si>
-    <t>["Налоговая отчетность в Украине","Основные виды налоговых отчетов для юридических лиц:"]</t>
+    <t>Налоговая отчетность в Украине, Основные виды налоговых отчетов для юридических лиц:</t>
   </si>
   <si>
     <t>Налоговая Отчетность в Украине: Подробный Обзор и Правила Подготовки</t>
@@ -118,7 +139,7 @@
     <t>http://localhost:3000/taxation_forms_in_ukraine</t>
   </si>
   <si>
-    <t>["Формы Налогообложения в Украине: Как выбрать оптимальный налоговый режим для вашего бизнеса"]</t>
+    <t>Формы Налогообложения в Украине: Как выбрать оптимальный налоговый режим для вашего бизнеса</t>
   </si>
   <si>
     <t>Формы налогообложения в Украине: Как выбрать правильный налоговый режим для вашего бизнеса</t>
@@ -130,7 +151,7 @@
     <t>http://localhost:3000/bank_account_in_ukraine</t>
   </si>
   <si>
-    <t>["Открытие и Ведение Банковского Счета для Юридических Лиц в Украине","Зачем компании нужен банковский счет?","Как открыть банковский счет в Украине?","Заключение"]</t>
+    <t>Открытие и Ведение Банковского Счета для Юридических Лиц в Украине, Зачем компании нужен банковский счет?, Как открыть банковский счет в Украине?, Заключение</t>
   </si>
   <si>
     <t>Открытие и ведение банковского счета для юридических лиц в Украине: Полное руководство</t>
@@ -142,7 +163,7 @@
     <t>http://localhost:3000/legal_address_in_ukraine</t>
   </si>
   <si>
-    <t>["Юридический Адрес в Украине: Важное Решение для Вашего Бизнеса","1. Репутация Компании","2. Возможности Для Развития"," ","3. Налоговые Обязательства","4. Почтовая корреспонденция"]</t>
+    <t>Юридический Адрес в Украине: Важное Решение для Вашего Бизнеса, 1. Репутация Компании, 2. Возможности Для Развития,  , 3. Налоговые Обязательства, 4. Почтовая корреспонденция</t>
   </si>
   <si>
     <t>Юридический Адрес в Украине: Важный Элемент Для Вашего Бизнеса</t>
@@ -154,7 +175,7 @@
     <t>http://localhost:3000/main_forms_of_ownership_in_ukraine</t>
   </si>
   <si>
-    <t>["Формы Собственности в Украине: Какая Подходит в Вашем Случае?","1. Индивидуальное Предпринимательство или Физическое Лицо Предприниматель (ФОП)","2. Общество с Ограниченной Ответственностью (ООО)","4. Кооперативы"]</t>
+    <t>Формы Собственности в Украине: Какая Подходит в Вашем Случае?, 1. Индивидуальное Предпринимательство или Физическое Лицо Предприниматель (ФОП), 2. Общество с Ограниченной Ответственностью (ООО), 4. Кооперативы</t>
   </si>
   <si>
     <t>Формы Собственности в Украине: Все, Что Вам Нужно Знать</t>
@@ -166,9 +187,6 @@
     <t>http://localhost:3000/cost_of_opening_a_legal_entity_in_ukraine</t>
   </si>
   <si>
-    <t>["Стоимость Открытия Юридического Лица в Украине: Подробный Обзор и Расчеты"]</t>
-  </si>
-  <si>
     <t>Стоимость Открытия Юридического Лица в Украине: Подробный Обзор и Расчеты</t>
   </si>
   <si>
@@ -178,7 +196,7 @@
     <t>http://localhost:3000/opening_a_company_in_ukraine</t>
   </si>
   <si>
-    <t>["Открытие Фирмы в Украине: Полное Руководство для Предпринимателей","1. Выбор Структуры Бизнеса","2. Регистрация Фирмы","3. Регистрация в налоговой службе","4. Открытие Банковского Счета","5. Лицензии и Разрешения","6. Учет и Отчетность","7. Защита Прав Интеллектуальной Собственности","8. Найм Персонала"]</t>
+    <t>Открытие Фирмы в Украине: Полное Руководство для Предпринимателей, 1. Выбор Структуры Бизнеса, 2. Регистрация Фирмы, 3. Регистрация в налоговой службе, 4. Открытие Банковского Счета, 5. Лицензии и Разрешения, 6. Учет и Отчетность, 7. Защита Прав Интеллектуальной Собственности, 8. Найм Персонала</t>
   </si>
   <si>
     <t>Открытие Фирмы в Украине: Шаг за Шагом Руководство и Советы</t>
@@ -193,7 +211,7 @@
     <t>http://localhost:3000/trade_agent_in_ukraine</t>
   </si>
   <si>
-    <t>["Торговый Агент в Украине: Ваш Партнер в Мировой Торговле","Кто такой Торговый Агент?","Преимущества Работы с Торговым Агентом в Украине","Выводы"]</t>
+    <t>Торговый Агент в Украине: Ваш Партнер в Мировой Торговле, Кто такой Торговый Агент?, Преимущества Работы с Торговым Агентом в Украине, Выводы</t>
   </si>
   <si>
     <t>Торговый Агент в Украине: Эффективная Поддержка вашего ВЭД Бизнеса</t>
@@ -202,7 +220,7 @@
     <t>http://localhost:3000/foreign_trade_consulting</t>
   </si>
   <si>
-    <t>["Консультации ВЭД: Ключ к Успешной Международной Торговле","Что собой представляют Консультации ВЭД?","Преимущества Консультаций ВЭД","Выводы"]</t>
+    <t>Консультации ВЭД: Ключ к Успешной Международной Торговле, Что собой представляют Консультации ВЭД?, Преимущества Консультаций ВЭД, Выводы</t>
   </si>
   <si>
     <t>Консультации ВЭД: Экспертное Руководство по Внешнеэкономической Деятельности</t>
@@ -217,7 +235,7 @@
     <t>http://localhost:3000/multimodal_transportation</t>
   </si>
   <si>
-    <t>["Мультимодальные Перевозки в Украине ","Что такое мультимодальные перевозки? ","Преимущества мультимодальных перевозок ","Мультимодальные перевозки в Украине "]</t>
+    <t xml:space="preserve">Мультимодальные Перевозки в Украине , Что такое мультимодальные перевозки? , Преимущества мультимодальных перевозок , Мультимодальные перевозки в Украине </t>
   </si>
   <si>
     <t>Мультимодальные Перевозки в Украине: Оптимизация Логистики для Вашего Бизнеса</t>
@@ -232,7 +250,7 @@
     <t>http://localhost:3000/airfreight_costs</t>
   </si>
   <si>
-    <t>["Стоимость Авиаперевозки","Факторы, Влияющие на Стоимость Авиаперевозки","Как Рассчитать Стоимость Авиаперевозки","Оптимизация Стоимости Авиаперевозки","Свяжитесь с Нами"]</t>
+    <t>Стоимость Авиаперевозки, Факторы, Влияющие на Стоимость Авиаперевозки, Как Рассчитать Стоимость Авиаперевозки, Оптимизация Стоимости Авиаперевозки, Свяжитесь с Нами</t>
   </si>
   <si>
     <t>Стоимость Авиаперевозки: Как Рассчитать и Оптимизировать Ваши  Расходы</t>
@@ -247,7 +265,7 @@
     <t>http://localhost:3000/cargo_delivery_from_Europe</t>
   </si>
   <si>
-    <t>["Доставка Грузов из Европы","Развитая Инфраструктура и Логистика","Множество Поставщиков и Рыночная Вариативность","Соблюдение Норм и Правил","Сотрудничество с Профессионалами","Выводы"]</t>
+    <t>Доставка Грузов из Европы, Развитая Инфраструктура и Логистика, Множество Поставщиков и Рыночная Вариативность, Соблюдение Норм и Правил, Сотрудничество с Профессионалами, Выводы</t>
   </si>
   <si>
     <t>Доставка Грузов из Европы: Эффективная Логистика для Вашего Бизнеса</t>
@@ -262,7 +280,7 @@
     <t>http://localhost:3000/port_forwarding</t>
   </si>
   <si>
-    <t>["Портовое Экспедирование в Украине: Ваш Путь к Эффективной Логистике"]</t>
+    <t>Портовое Экспедирование в Украине: Ваш Путь к Эффективной Логистике</t>
   </si>
   <si>
     <t>Портовое Экспедирование в Украине – Надежная Логистика Ваших Грузов</t>
@@ -274,7 +292,7 @@
     <t>http://localhost:3000/customs_brokerage_services_cost</t>
   </si>
   <si>
-    <t>["Стоимость Услуг Таможенного Брокера в Украине","Что Влияет на Стоимость Услуг Таможенного Брокера? ","Почему Сотрудничество с Таможенным Брокером – Это Выгодно? "]</t>
+    <t xml:space="preserve">Стоимость Услуг Таможенного Брокера в Украине, Что Влияет на Стоимость Услуг Таможенного Брокера? , Почему Сотрудничество с Таможенным Брокером – Это Выгодно? </t>
   </si>
   <si>
     <t>Стоимость Услуг Таможенного Брокера в Украине: Профессиональная Помощь и Оптимизация ВЭД</t>
@@ -286,7 +304,7 @@
     <t>http://localhost:3000/customs_broker</t>
   </si>
   <si>
-    <t>["Таможенный брокер: Ваш надежный партнер в Киеве, Одессе и Львове ","Кто такой таможенный брокер?"]</t>
+    <t>Таможенный брокер: Ваш надежный партнер в Киеве, Одессе и Львове , Кто такой таможенный брокер?</t>
   </si>
   <si>
     <t>Таможенный брокер: Профессиональные услуги в Киеве, Одессе и Львове</t>
@@ -301,7 +319,7 @@
     <t>http://localhost:3000/fqas</t>
   </si>
   <si>
-    <t>["Часто Задаваемые Вопросы","Что такое Часто Задаваемые Вопросы (FAQs)?","Популярные Вопросы и Ответы","Свяжитесь с Нами"]</t>
+    <t>Часто Задаваемые Вопросы, Что такое Часто Задаваемые Вопросы (FAQs)?, Популярные Вопросы и Ответы, Свяжитесь с Нами</t>
   </si>
   <si>
     <t>Часто задаваемые вопросы (FAQs)</t>
@@ -313,7 +331,7 @@
     <t>http://localhost:3000/help</t>
   </si>
   <si>
-    <t>["Помощь и Служба Поддержки","Часто Задаваемые Вопросы","Как Мы Можем Помочь?","Контакты Службы Поддержки","Заключение"]</t>
+    <t>Помощь и Служба Поддержки, Часто Задаваемые Вопросы, Как Мы Можем Помочь?, Контакты Службы Поддержки, Заключение</t>
   </si>
   <si>
     <t>Помощь и Поддержка: Ваш Гид в Мире Доставки и Растаможки Грузов</t>
@@ -325,7 +343,7 @@
     <t>http://localhost:3000/cookies</t>
   </si>
   <si>
-    <t>["Cookies","Что такое Cookies?","Использование Cookies","Типы Cookies","Управление Cookies","Заключение"]</t>
+    <t>Cookies, Что такое Cookies?, Использование Cookies, Типы Cookies, Управление Cookies, Заключение</t>
   </si>
   <si>
     <t>Cookies</t>
@@ -337,7 +355,7 @@
     <t>http://localhost:3000/terms_conditions</t>
   </si>
   <si>
-    <t>["Условия использования","Правила Использования","Ответственность","Изменения в Условиях","Свяжитесь с Нами","Заключение"]</t>
+    <t>Условия использования, Правила Использования, Ответственность, Изменения в Условиях, Свяжитесь с Нами, Заключение</t>
   </si>
   <si>
     <t>Условия использования</t>
@@ -349,7 +367,7 @@
     <t>http://localhost:3000/privacy_policy</t>
   </si>
   <si>
-    <t>["Политика Конфиденциальности","Собор Информации","Использование Информации","Защита Информации","Доступ и Контроль","Связь с Нами","Изменения в Политике Конфиденциальности","Заключение"]</t>
+    <t>Политика Конфиденциальности, Собор Информации, Использование Информации, Защита Информации, Доступ и Контроль, Связь с Нами, Изменения в Политике Конфиденциальности, Заключение</t>
   </si>
   <si>
     <t>Политика конфиденциальности</t>
@@ -361,7 +379,7 @@
     <t>http://localhost:3000/about_us</t>
   </si>
   <si>
-    <t>["Транс-Хоуп  ","Наши Принципы","Наши Услуги","Контакты"]</t>
+    <t>Транс-Хоуп  , Наши Принципы, Наши Услуги, Контакты</t>
   </si>
   <si>
     <t>О Нас: Транс-Хоуп, Ваш Надежный Партнер в Доставке и Растаможке Грузов</t>
@@ -373,7 +391,7 @@
     <t>http://localhost:3000/customs_clearance</t>
   </si>
   <si>
-    <t>["Таможенное оформление: Быстро, Надежно, Профессионально ","Почему Выбирают Нас","Почему Таможенное Оформление Важно"]</t>
+    <t>Таможенное оформление: Быстро, Надежно, Профессионально , Почему Выбирают Нас, Почему Таможенное Оформление Важно</t>
   </si>
   <si>
     <t>Профессиональное Таможенное Оформление Киев, Одесса, Львов. Быстро и Надежно</t>
@@ -382,7 +400,7 @@
     <t>http://localhost:3000/container_delivery</t>
   </si>
   <si>
-    <t>["Морские контейнерные перевозки: Надежность и Экономия","Преимущества морских контейнерных перевозок "]</t>
+    <t xml:space="preserve">Морские контейнерные перевозки: Надежность и Экономия, Преимущества морских контейнерных перевозок </t>
   </si>
   <si>
     <t>Морские контейнерные перевозки: Надежность и Экономия</t>
@@ -394,7 +412,7 @@
     <t>http://localhost:3000/truck_delivery</t>
   </si>
   <si>
-    <t>["Авто перевозки","Преимущества авто перевозок:","Выбор верного партнера:","Выводы:"]</t>
+    <t>Авто перевозки, Преимущества авто перевозок:, Выбор верного партнера:, Выводы:</t>
   </si>
   <si>
     <t>Авто Перевозки: Надежность и Эффективность в Транспортировке Вашего Груза</t>
@@ -409,7 +427,7 @@
     <t>http://localhost:3000/air_delivery</t>
   </si>
   <si>
-    <t>["Авиа перевозки","Польза авиа перевозок:","Выводы:"]</t>
+    <t>Авиа перевозки, Польза авиа перевозок:, Выводы:</t>
   </si>
   <si>
     <t>Авиа перевозки: быстро, надежно и эффективно</t>
@@ -424,7 +442,7 @@
     <t>http://localhost:3000/sea_container_freight_rate</t>
   </si>
   <si>
-    <t>["Стоимость Перевозки Контейнера Морем"]</t>
+    <t>Стоимость Перевозки Контейнера Морем</t>
   </si>
   <si>
     <t>Стоимость Перевозки Контейнера Морем: Надежные и Конкурентоспособные Тарифы</t>
@@ -436,7 +454,7 @@
     <t>http://localhost:3000/container_freight_rate</t>
   </si>
   <si>
-    <t>["Фрахт Контейнера: Ключевые Аспекты и Стоимость Грузоперевозок"]</t>
+    <t>Фрахт Контейнера: Ключевые Аспекты и Стоимость Грузоперевозок</t>
   </si>
   <si>
     <t>Фрахт контейнера: Точные цены и гибкие условия для грузоперевозок</t>
@@ -448,7 +466,7 @@
     <t>http://localhost:3000/intermodal_transportation</t>
   </si>
   <si>
-    <t>["Интермодальные Перевозки"]</t>
+    <t>Интермодальные Перевозки</t>
   </si>
   <si>
     <t>Интермодальные Перевозки: Эффективность и Надежность в Глобальной Логистике</t>
@@ -460,7 +478,7 @@
     <t>http://localhost:3000/customs_broker_services_price</t>
   </si>
   <si>
-    <t>["Услуги таможенного брокера цена"]</t>
+    <t>Услуги таможенного брокера цена</t>
   </si>
   <si>
     <t>Цены на Услуги Таможенного Брокера: Прозрачность и Эффективность</t>
@@ -475,7 +493,7 @@
     <t>http://localhost:3000/customs_broker_kyiv</t>
   </si>
   <si>
-    <t>["Таможенный Брокер Киев","Преимущества Сотрудничества с Таможенным Брокером в Киеве"]</t>
+    <t>Таможенный Брокер Киев, Преимущества Сотрудничества с Таможенным Брокером в Киеве</t>
   </si>
   <si>
     <t>Таможенный брокер Киев: Эффективная Таможенная Поддержка для Вашего Бизнеса</t>
@@ -493,7 +511,7 @@
     <t>http://localhost:3000/info/customs_control</t>
   </si>
   <si>
-    <t>["Таможенный контроль"]</t>
+    <t>Таможенный контроль</t>
   </si>
   <si>
     <t>Таможенный контроль: Правила, Процедуры, Значение - Важный Этап Импорта и Экспорта</t>
@@ -506,7 +524,7 @@
     <t>http://localhost:3000/info/customs_regimes_in_ukraine</t>
   </si>
   <si>
-    <t>["Таможенные режимы в Украине "]</t>
+    <t xml:space="preserve">Таможенные режимы в Украине </t>
   </si>
   <si>
     <t>Таможенные режимы в Украине</t>
@@ -518,7 +536,7 @@
     <t>http://localhost:3000/info/customs_useful</t>
   </si>
   <si>
-    <t>["Таможня, полезные материалы"]</t>
+    <t>Таможня, полезные материалы</t>
   </si>
   <si>
     <t>Таможенное оформление: Ключевая информация и Экспертные Советы</t>
@@ -530,7 +548,7 @@
     <t>http://localhost:3000/info/certificate_of_origin_base</t>
   </si>
   <si>
-    <t>["Страна происхождения товара и Сертификат происхождения"]</t>
+    <t>Страна происхождения товара и Сертификат происхождения</t>
   </si>
   <si>
     <t>Сертификат происхождения, основы по определению страны происхождения</t>
@@ -551,7 +569,7 @@
     <t>http://localhost:3000/info/sections_purchase_sale_agreement</t>
   </si>
   <si>
-    <t>["Рекомендации по оформлению международных договоров"]</t>
+    <t>Рекомендации по оформлению международных договоров</t>
   </si>
   <si>
     <t>Разделы договора Купли-Продажи ВЭД</t>
@@ -572,7 +590,7 @@
     <t>http://localhost:3000/info/customs_clearance_package_export</t>
   </si>
   <si>
-    <t>["Документы для экспорта товаров"]</t>
+    <t>Документы для экспорта товаров</t>
   </si>
   <si>
     <t>Пакет документов для экспорта товаров</t>
@@ -584,7 +602,7 @@
     <t>http://localhost:3000/info/customs_clearance_package_import</t>
   </si>
   <si>
-    <t>["Пакет документов при импорте товаров"]</t>
+    <t>Пакет документов при импорте товаров</t>
   </si>
   <si>
     <t>Пакет документов для импорта товаров</t>
@@ -596,7 +614,7 @@
     <t>http://localhost:3000/info/customs_clearance_package_cost</t>
   </si>
   <si>
-    <t>["Пакет документов для подтверждения таможенной стоимости при импорте товаров."]</t>
+    <t>Пакет документов для подтверждения таможенной стоимости при импорте товаров.</t>
   </si>
   <si>
     <t>Пакет Документов для подтверждения Таможенной стоимости товаров. Максимизируйте Прозрачность вашего бизнеса с Транс-Хоуп.</t>
@@ -608,7 +626,7 @@
     <t>http://localhost:3000/info/customs_broker_license</t>
   </si>
   <si>
-    <t>["Получение лицензии на осуществление таможенно брокерской деятельности в Украине регулируеться следующими приказами:"]</t>
+    <t>Получение лицензии на осуществление таможенно брокерской деятельности в Украине регулируеться следующими приказами:</t>
   </si>
   <si>
     <t xml:space="preserve">Лицензия таможенного брокера </t>
@@ -620,7 +638,7 @@
     <t>http://localhost:3000/info/example_of_foreign_economic_contract</t>
   </si>
   <si>
-    <t>["Внешнеэкономический Договор Купли-Продажи, образец"]</t>
+    <t>Внешнеэкономический Договор Купли-Продажи, образец</t>
   </si>
   <si>
     <t>Внешнеэкономический Договор Купли-Продажи, образец: Раскройте Ваши Мировые Возможности</t>
@@ -632,7 +650,7 @@
     <t>http://localhost:3000/info/customs_accreditation</t>
   </si>
   <si>
-    <t>["Аккредитация на таможне онлайн "]</t>
+    <t xml:space="preserve">Аккредитация на таможне онлайн </t>
   </si>
   <si>
     <t>Аккредитация на таможне онлайн: первые шаги для успешного ведения международного бизнеса</t>
@@ -650,7 +668,7 @@
     <t>http://localhost:3000/blog/konteinernie-perevozki-gdinya</t>
   </si>
   <si>
-    <t>["Особенности доставки в Украину через Гдыню: ","Советы по оптимизации контейнерных перевозок через Гдыню:"]</t>
+    <t>Особенности доставки в Украину через Гдыню: , Советы по оптимизации контейнерных перевозок через Гдыню:</t>
   </si>
   <si>
     <t>Контейнерные перевозки Гдыня.</t>
@@ -674,7 +692,7 @@
     <t>http://localhost:3000/blog/the-economics-of-low-cost-delivery-services</t>
   </si>
   <si>
-    <t>["Лоукостеры авиа доставки грузов в Украину.","Снижение расходов ","Повышение доходов "]</t>
+    <t xml:space="preserve">Лоукостеры авиа доставки грузов в Украину., Снижение расходов , Повышение доходов </t>
   </si>
   <si>
     <t>Экономика лоукостеров по доставке грузов: как авиакомпании снижают расходы и повышают доходы.</t>
@@ -701,9 +719,6 @@
     <t>http://localhost:3000/blog/methods-of-transportation-containers-from-china-to-ukraine</t>
   </si>
   <si>
-    <t>["Способы доставки контейнеров из Китая в Украину"]</t>
-  </si>
-  <si>
     <t>Способы доставки контейнеров из Китая в Украину</t>
   </si>
   <si>
@@ -728,9 +743,6 @@
     <t>http://localhost:3000/blog/how-to-write-an-inquiry-to-a-chinese-supplier</t>
   </si>
   <si>
-    <t>["Как написать запрос китайскому поставщику товаров?"]</t>
-  </si>
-  <si>
     <t>Как написать запрос китайскому поставщику товаров?</t>
   </si>
   <si>
@@ -741,9 +753,6 @@
   </si>
   <si>
     <t>http://localhost:3000/blog/searching-for-suppliers-in-china</t>
-  </si>
-  <si>
-    <t>["Поиск поставщиков в Китае"]</t>
   </si>
   <si>
     <t>Поиск поставщиков в Китае</t>
@@ -1177,1145 +1186,1181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F74"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F17" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E23" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F24" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F26" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E27" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F27" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E28" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E29" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F29" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C30" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E30" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F30" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C31" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E31" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F31" t="s">
-        <v>8</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C32" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E32" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F32" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C33" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E33" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F33" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B34" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C34" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F34" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" t="s">
+        <v>139</v>
+      </c>
+      <c r="F35" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" t="s">
-        <v>136</v>
-      </c>
-      <c r="C37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" t="s">
-        <v>137</v>
-      </c>
-      <c r="E37" t="s">
-        <v>138</v>
-      </c>
-      <c r="F37" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C38" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E38" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F38" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C39" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E39" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F39" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B40" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C40" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E40" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F40" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="B41" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C41" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E41" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F41" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>158</v>
+      </c>
+      <c r="B42" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>160</v>
+      </c>
+      <c r="E42" t="s">
+        <v>161</v>
+      </c>
+      <c r="F42" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>158</v>
-      </c>
-      <c r="B44" t="s">
-        <v>159</v>
-      </c>
-      <c r="C44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" t="s">
-        <v>160</v>
-      </c>
-      <c r="E44" t="s">
-        <v>161</v>
-      </c>
-      <c r="F44" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C45" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E45" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F45" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B46" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C46" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E46" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F46" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B47" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C47" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E47" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F47" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B48" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C48" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D48" t="s">
+        <v>178</v>
       </c>
       <c r="E48" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F48" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B49" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C49" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>179</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F49" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B50" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C50" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>185</v>
       </c>
       <c r="E50" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F50" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B51" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C51" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F51" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B52" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C52" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E52" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F52" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B53" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C53" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E53" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F53" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B54" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C54" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E54" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F54" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B55" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C55" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E55" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F55" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B56" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C56" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E56" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F56" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>164</v>
+      </c>
+      <c r="B57" t="s">
+        <v>211</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" t="s">
+        <v>212</v>
+      </c>
+      <c r="E57" t="s">
+        <v>213</v>
+      </c>
+      <c r="F57" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>210</v>
-      </c>
-      <c r="B59" t="s">
-        <v>211</v>
-      </c>
-      <c r="C59" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" t="s">
-        <v>212</v>
-      </c>
-      <c r="E59" t="s">
-        <v>213</v>
-      </c>
-      <c r="F59" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B60" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C60" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D60" t="s">
+        <v>218</v>
       </c>
       <c r="E60" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F60" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B61" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C61" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>220</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F61" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B62" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C62" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D62" t="s">
+        <v>226</v>
       </c>
       <c r="E62" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F62" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B63" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C63" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>229</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F63" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B64" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C64" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
+        <v>235</v>
       </c>
       <c r="E64" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F64" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B65" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C65" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>238</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
         <v>239</v>
@@ -2332,49 +2377,55 @@
         <v>242</v>
       </c>
       <c r="C66" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
         <v>243</v>
       </c>
       <c r="E66" t="s">
+        <v>243</v>
+      </c>
+      <c r="F66" t="s">
         <v>244</v>
       </c>
-      <c r="F66" t="s">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="B67" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" t="s">
+        <v>247</v>
+      </c>
+      <c r="E67" t="s">
+        <v>247</v>
+      </c>
+      <c r="F67" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>247</v>
-      </c>
-      <c r="B69" t="s">
-        <v>248</v>
-      </c>
-      <c r="C69" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" t="s">
         <v>249</v>
-      </c>
-      <c r="F69" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B70" t="s">
         <v>251</v>
       </c>
       <c r="C70" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D70" t="s">
+        <v>10</v>
       </c>
       <c r="E70" t="s">
         <v>252</v>
@@ -2385,13 +2436,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B71" t="s">
         <v>254</v>
       </c>
       <c r="C71" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D71" t="s">
+        <v>10</v>
       </c>
       <c r="E71" t="s">
         <v>255</v>
@@ -2402,13 +2456,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B72" t="s">
         <v>257</v>
       </c>
       <c r="C72" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D72" t="s">
+        <v>10</v>
       </c>
       <c r="E72" t="s">
         <v>258</v>
@@ -2419,19 +2476,42 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B73" t="s">
         <v>260</v>
       </c>
       <c r="C73" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D73" t="s">
+        <v>10</v>
       </c>
       <c r="E73" t="s">
         <v>261</v>
       </c>
       <c r="F73" t="s">
         <v>262</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>250</v>
+      </c>
+      <c r="B74" t="s">
+        <v>263</v>
+      </c>
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" t="s">
+        <v>264</v>
+      </c>
+      <c r="F74" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/allPages/allPagesRU.xlsx
+++ b/allPages/allPagesRU.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="296">
   <si>
     <t>Date</t>
   </si>
@@ -22,12 +22,15 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Headlines</t>
+    <t>Title</t>
   </si>
   <si>
     <t>SEO Title</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>Keywords</t>
   </si>
   <si>
@@ -43,12 +46,12 @@
     <t>x</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Услуги ВЭД, доставки и растаможки грузов в Украине в городах Киев, Львов, Одесса</t>
   </si>
   <si>
+    <t>Профессиональный торговый агент в Украине, содействие в импортно экспортных операциях в Украине. Предоставляем консультации, оказываем поддержку в таможенном оформлении, и логистике. Доверьтесь нашему опыту для успешного экспорта и импорта товаров и услуг.</t>
+  </si>
+  <si>
     <t>торговый посредник, внешнеторговый агент, экспортный консультант, импортный брокер, ВЭД консультации, мировая торговля, международный бизнес, торговля с Украиной, внешнеэкономическая деятельность</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
     <t>Таможенный брокер и таможенное оформление в Киеве, Одессе, Львове</t>
   </si>
   <si>
+    <t>Таможенный брокер для таможенного оформления в Киеве, Одессе или Львове</t>
+  </si>
+  <si>
     <t>таможенное оформление Киев, услуги таможенного оформления Львов, таможенный брокер Одесса, расчёт таможенных платежей, сопровождение грузов, таможенные документы, таможенные услуги</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>Морские контейнерные перевозки и доставка грузов из США и Китая в Украину</t>
   </si>
   <si>
+    <t>Нужны морские контейнерные перевозки для доставки грузов из США и Китая в Украину? Мы обеспечиваем безопасную и своевременную доставку товаров морем, гарантируя полный контроль и надежность на каждом этапе транспортировки.</t>
+  </si>
+  <si>
     <t>доставка грузов из США в Украину, морские контейнерные перевозки, доставка из Китая в Украину, контейнерные перевозки Украина, морская доставка из Китая, международные морские перевозки</t>
   </si>
   <si>
@@ -76,6 +85,9 @@
     <t>Авиа доставка и авиаперевозки грузов в Украину: быстро и надежно</t>
   </si>
   <si>
+    <t>Ищете эффективные решения для авиа доставки и авиаперевозки грузов в Украину? Мы предлагаем быстрые, надежные и безопасные авиаперевозки.</t>
+  </si>
+  <si>
     <t>авиаперевозки грузов Украина, авиа доставка в Украину, международная авиадоставка, транспортировка грузов самолетом, авиа логистика Украина, Экспресс-доставка авиа, Авиафрахт, Авиаперевозка грузов, Авиа логистика, Воздушные перевозки грузов, Авиаперевозки из Китая, Авиаперевозки в Европу, Грузовая авиадоставка, Авиаперевозки опасных грузов</t>
   </si>
   <si>
@@ -85,6 +97,9 @@
     <t>Авто перевозки и доставка грузов из Европы: быстрые и безопасные решения</t>
   </si>
   <si>
+    <t>Нужны авто перевозки и доставка грузов из Европы? Наша компания предлагает быстрые и безопасные решения для авто доставки любых грузов, обеспечивая оперативность и надежность на каждом этапе транспортировки транспортировки вашего груза с нами.</t>
+  </si>
+  <si>
     <t>авто перевозки из Европы, доставка грузов авто транспортом, международная авто доставка, транспортировка товаров из Европы, авто логистика Европа, доставка грузов автотранспортом</t>
   </si>
   <si>
@@ -97,6 +112,9 @@
     <t>Полезные материалы по таможенному оформлению и доставке грузов: советы и инструкции</t>
   </si>
   <si>
+    <t>Откройте для себя полезные материалы по таможенному оформлению и доставке грузов.</t>
+  </si>
+  <si>
     <t>таможенное оформление грузов, инструкции по доставке грузов, логистика и таможенное оформление, успешная доставка грузов, как доставить груз через таможню</t>
   </si>
   <si>
@@ -115,72 +133,72 @@
     <t>http://localhost:3000/hr_search_in_ukraine</t>
   </si>
   <si>
-    <t>Поиск Персонала в Украине, Почему Поиск Персонала Важен, Этапы Поиска Персонала, Преимущества Сотрудничества с HR-Агентствами, Заключение</t>
-  </si>
-  <si>
     <t>Эффективный Поиск Персонала в Украине: Профессиональные HR-решения</t>
   </si>
   <si>
+    <t>Ищете надежного партнера для поиска и подбора персонала в Украине? Наша компания предоставляет профессиональные HR-решения, способствующие успешному поиску квалифицированных сотрудников. Доверьтесь нам для оптимизации процесса подбора персонала и наращивания кадрового потенциала в вашей компании.</t>
+  </si>
+  <si>
     <t>подбор персонала, рекрутинг в Украине, HR-услуги, кадровое агентство, трудоустройство в Украине, управление персоналом, поиск специалистов, кадровый консалтинг, HR-консультации, персональные ресурсы Украины</t>
   </si>
   <si>
     <t>http://localhost:3000/tax_reporting_in_ukraine</t>
   </si>
   <si>
-    <t>Налоговая отчетность в Украине, Основные виды налоговых отчетов для юридических лиц:</t>
-  </si>
-  <si>
     <t>Налоговая Отчетность в Украине: Подробный Обзор и Правила Подготовки</t>
   </si>
   <si>
+    <t>Узнайте всё о налоговой отчетности в Украине. Наши эксперты предоставляют подробный обзор, правила и советы по правильной подготовке налоговых отчетов для вашей компании.</t>
+  </si>
+  <si>
     <t>налоговая отчетность, налоговые декларации, налоговые обязательства, налоговые ставки, налоговые нормы, налоговое законодательство, бухгалтерия и налоги, налоговые изменения, налоговые обязанности, налоговое администрирование</t>
   </si>
   <si>
     <t>http://localhost:3000/taxation_forms_in_ukraine</t>
   </si>
   <si>
-    <t>Формы Налогообложения в Украине: Как выбрать оптимальный налоговый режим для вашего бизнеса</t>
-  </si>
-  <si>
     <t>Формы налогообложения в Украине: Как выбрать правильный налоговый режим для вашего бизнеса</t>
   </si>
   <si>
+    <t>Узнайте о различных формах налогообложения в Украине. Налоговые обязательства, льготы и возможности, которые предоставляются различными налоговыми режимами. Выберите наиболее подходящий налоговый режим для вашего бизнеса.</t>
+  </si>
+  <si>
     <t>налоговые режимы, налоговая система, налоговые обязательства, налоговая ставка, налоговые льготы, уплата налогов, налоговая оптимизация, налоговый режим для бизнеса, налоговый учет, фискальная политика, налоговая отчетность, налоговые обязанности</t>
   </si>
   <si>
     <t>http://localhost:3000/bank_account_in_ukraine</t>
   </si>
   <si>
-    <t>Открытие и Ведение Банковского Счета для Юридических Лиц в Украине, Зачем компании нужен банковский счет?, Как открыть банковский счет в Украине?, Заключение</t>
-  </si>
-  <si>
     <t>Открытие и ведение банковского счета для юридических лиц в Украине: Полное руководство</t>
   </si>
   <si>
+    <t>Открытие и ведение банковского счета для юридических лиц в Украине - важный этап в финансовой деятельности вашей компании. Полное руководство по открытию и управлению банковским счетом, чтобы обеспечить финансовую стабильность вашего предприятия.</t>
+  </si>
+  <si>
     <t>бизнес-счет, корпоративный счет, банковские услуги для компаний, банковское обслуживание юридических лиц, финансовая деятельность организаций, счет в банке Украины, открытие счета для предприятия, банковские услуги для фирм</t>
   </si>
   <si>
     <t>http://localhost:3000/legal_address_in_ukraine</t>
   </si>
   <si>
-    <t>Юридический Адрес в Украине: Важное Решение для Вашего Бизнеса, 1. Репутация Компании, 2. Возможности Для Развития,  , 3. Налоговые Обязательства, 4. Почтовая корреспонденция</t>
-  </si>
-  <si>
     <t>Юридический Адрес в Украине: Важный Элемент Для Вашего Бизнеса</t>
   </si>
   <si>
+    <t>Узнайте, как правильно выбрать и зарегистрировать юридический адрес в для вашего бизнеса в Украине. Рассмотрим, как выбрать и зарегистрировать юридический адрес, и какие важные аспекты следует учесть.</t>
+  </si>
+  <si>
     <t>адрес регистрации в Украине, регистрация юридического адреса, налоговый адрес, офисное пространство, юридическая регистрация, выбор местоположения, репутация компании, налоговые обязательства</t>
   </si>
   <si>
     <t>http://localhost:3000/main_forms_of_ownership_in_ukraine</t>
   </si>
   <si>
-    <t>Формы Собственности в Украине: Какая Подходит в Вашем Случае?, 1. Индивидуальное Предпринимательство или Физическое Лицо Предприниматель (ФОП), 2. Общество с Ограниченной Ответственностью (ООО), 4. Кооперативы</t>
-  </si>
-  <si>
     <t>Формы Собственности в Украине: Все, Что Вам Нужно Знать</t>
   </si>
   <si>
+    <t>Узнайте о разнообразных формах собственности в Украине. Давайте разберемся в  вариантах собственности, правилах и процедурах их регистрации, а также поговори м  наиболее подходящей форме собственности для вашего бизнеса или инвестиций в Украине.</t>
+  </si>
+  <si>
     <t>собственность в Украине, регистрация собственности, правила собственности, формы собственности в бизнесе, владение недвижимостью, собственность и налоги, виды собственности</t>
   </si>
   <si>
@@ -190,18 +208,21 @@
     <t>Стоимость Открытия Юридического Лица в Украине: Подробный Обзор и Расчеты</t>
   </si>
   <si>
+    <t>Узнайте о стоимости открытия юридического лица в Украине. В нашей статье представлен подробный обзор и расчеты, позволяющие оценить начальные затраты на регистрацию компании в Украине.</t>
+  </si>
+  <si>
     <t>Создание фирмы в Украине, регистрация юридического лица, затраты на открытие компании, стоимость регистрации бизнеса, расходы на юридическое лицо, бюджет для регистрации фирмы</t>
   </si>
   <si>
     <t>http://localhost:3000/opening_a_company_in_ukraine</t>
   </si>
   <si>
-    <t>Открытие Фирмы в Украине: Полное Руководство для Предпринимателей, 1. Выбор Структуры Бизнеса, 2. Регистрация Фирмы, 3. Регистрация в налоговой службе, 4. Открытие Банковского Счета, 5. Лицензии и Разрешения, 6. Учет и Отчетность, 7. Защита Прав Интеллектуальной Собственности, 8. Найм Персонала</t>
-  </si>
-  <si>
     <t>Открытие Фирмы в Украине: Шаг за Шагом Руководство и Советы</t>
   </si>
   <si>
+    <t>Хотите открыть фирму в Украине? Наше подробное руководство расскажет вам, как это сделать. Узнайте о всех этапах регистрации бизнеса, необходимых документах, налоговых аспектах и других важных нюансах. Мы предоставляем полезные советы и инструкции для успешного старта вашего бизнеса в Украине.</t>
+  </si>
+  <si>
     <t>регистрация фирмы, бизнес в Украине, стартап в Украине, предпринимательство в Украине, учредить компанию, налоговое законодательство, правила регистрации, документы для бизнеса</t>
   </si>
   <si>
@@ -211,21 +232,18 @@
     <t>http://localhost:3000/trade_agent_in_ukraine</t>
   </si>
   <si>
-    <t>Торговый Агент в Украине: Ваш Партнер в Мировой Торговле, Кто такой Торговый Агент?, Преимущества Работы с Торговым Агентом в Украине, Выводы</t>
-  </si>
-  <si>
     <t>Торговый Агент в Украине: Эффективная Поддержка вашего ВЭД Бизнеса</t>
   </si>
   <si>
     <t>http://localhost:3000/foreign_trade_consulting</t>
   </si>
   <si>
-    <t>Консультации ВЭД: Ключ к Успешной Международной Торговле, Что собой представляют Консультации ВЭД?, Преимущества Консультаций ВЭД, Выводы</t>
-  </si>
-  <si>
     <t>Консультации ВЭД: Экспертное Руководство по Внешнеэкономической Деятельности</t>
   </si>
   <si>
+    <t>Получите профессиональные консультации ВЭД от экспертов в области внешнеэкономической деятельности. Наши консультанты помогут вам разобраться в сложных вопросах импорта и экспорта, таможенного оформления и многих других аспектах международной торговли. Обеспечьте успешное ведение вашего бизнеса за рубежом с нашей помощью.</t>
+  </si>
+  <si>
     <t>консалтинг ВЭД, ВЭД услуги, экспортно-импортные консультации, таможенное консультирование, международная торговля, экспортные процедуры, импортные правила, ВЭД эксперт, внешнеэкономическая деятельность</t>
   </si>
   <si>
@@ -235,12 +253,12 @@
     <t>http://localhost:3000/multimodal_transportation</t>
   </si>
   <si>
-    <t xml:space="preserve">Мультимодальные Перевозки в Украине , Что такое мультимодальные перевозки? , Преимущества мультимодальных перевозок , Мультимодальные перевозки в Украине </t>
-  </si>
-  <si>
     <t>Мультимодальные Перевозки в Украине: Оптимизация Логистики для Вашего Бизнеса</t>
   </si>
   <si>
+    <t>Закажите мультимодальные перевозки грузов и оптимизируйте логистику вашего бизнеса. Профессиональный сервис, гибкость маршрутов и снижение затрат.</t>
+  </si>
+  <si>
     <t>мультимодальная логистика, комбинированные перевозки, перевозка грузов через разные виды транспорта, глобальные мультимодальные решения, оптимизация грузоперевозок, мультимодальные перевозки в Европе, мультимодальные грузоперевозки, мультимодальные перевозки внутри страны, мультимодальная доставка, мультимодальный транспорт</t>
   </si>
   <si>
@@ -250,12 +268,12 @@
     <t>http://localhost:3000/airfreight_costs</t>
   </si>
   <si>
-    <t>Стоимость Авиаперевозки, Факторы, Влияющие на Стоимость Авиаперевозки, Как Рассчитать Стоимость Авиаперевозки, Оптимизация Стоимости Авиаперевозки, Свяжитесь с Нами</t>
-  </si>
-  <si>
     <t>Стоимость Авиаперевозки: Как Рассчитать и Оптимизировать Ваши  Расходы</t>
   </si>
   <si>
+    <t>Узнайте, как рассчитать и оптимизировать стоимость авиаперевозки. Эффективные стратегии и советы для снижения расходов на грузовые перевозки по воздуху. Планируйте свои логистические операции умно и экономьте с нашей помощью.</t>
+  </si>
+  <si>
     <t>стоимость грузоперевозки авиатранспортом, тарифы на авиаперевозки, цены на авиадоставку, расходы на авиаперевозку, стоимость авиатранспортировки, бюджет для авиаперевозки, экономия на авиадоставке, стоимость авиаперевозки грузов</t>
   </si>
   <si>
@@ -265,12 +283,12 @@
     <t>http://localhost:3000/cargo_delivery_from_Europe</t>
   </si>
   <si>
-    <t>Доставка Грузов из Европы, Развитая Инфраструктура и Логистика, Множество Поставщиков и Рыночная Вариативность, Соблюдение Норм и Правил, Сотрудничество с Профессионалами, Выводы</t>
-  </si>
-  <si>
     <t>Доставка Грузов из Европы: Эффективная Логистика для Вашего Бизнеса</t>
   </si>
   <si>
+    <t>Доставка грузов из Европы: ваш путь к мировой торговле. Обеспечиваем надежную и эффективную логистику для грузов из Европы. Узнайте, как мы упрощаем ваш бизнес и делаем международные поставки беззаботными.</t>
+  </si>
+  <si>
     <t>международная доставка из Европы, логистика грузов из Европы, импорт из Европы, экспорт в Европу, грузоперевозки в Европу, транспортировка товаров из Европы, европейские поставки, перевозка грузов через Европу</t>
   </si>
   <si>
@@ -280,36 +298,36 @@
     <t>http://localhost:3000/port_forwarding</t>
   </si>
   <si>
-    <t>Портовое Экспедирование в Украине: Ваш Путь к Эффективной Логистике</t>
-  </si>
-  <si>
     <t>Портовое Экспедирование в Украине – Надежная Логистика Ваших Грузов</t>
   </si>
   <si>
+    <t xml:space="preserve">Портового экспедирования грузов в Одессе, Южном, Черноморске и других портах Украины. Мы обеспечим полный цикл логистики: от документального сопровождения до доставки груза "от двери до двери". </t>
+  </si>
+  <si>
     <t>морское экспедирование, портовые услуги, экспедирование грузов в порту, портовая логистика, обработка грузов в порту, морские терминалы, портовая инфраструктура, грузы в порту, морские перевозки</t>
   </si>
   <si>
     <t>http://localhost:3000/customs_brokerage_services_cost</t>
   </si>
   <si>
-    <t xml:space="preserve">Стоимость Услуг Таможенного Брокера в Украине, Что Влияет на Стоимость Услуг Таможенного Брокера? , Почему Сотрудничество с Таможенным Брокером – Это Выгодно? </t>
-  </si>
-  <si>
     <t>Стоимость Услуг Таможенного Брокера в Украине: Профессиональная Помощь и Оптимизация ВЭД</t>
   </si>
   <si>
+    <t>Сколько стоит услуга таможенного брокера в Украине. Профессиональные таможенные брокеры в Киеве, Одессе и Львове помогут вам быстро и эффективно оформить грузы, сэкономив время и деньги.</t>
+  </si>
+  <si>
     <t>услуги таможенного брокера, стоимость таможенного брокера, таможенный брокер Киев, таможенный брокер Одесса, таможенный брокер Львов, услуги таможенного оформления, стоимость таможенных услуг, таможенное оформление грузов, таможенные брокеры Украина</t>
   </si>
   <si>
     <t>http://localhost:3000/customs_broker</t>
   </si>
   <si>
-    <t>Таможенный брокер: Ваш надежный партнер в Киеве, Одессе и Львове , Кто такой таможенный брокер?</t>
-  </si>
-  <si>
     <t>Таможенный брокер: Профессиональные услуги в Киеве, Одессе и Львове</t>
   </si>
   <si>
+    <t>Профессиональные услуги таможенного брокера в Киеве, Одессе и Львове. Быстрое и качественное таможенное оформление грузов. Индивидуальный подход и высокий уровень обслуживания.</t>
+  </si>
+  <si>
     <t>таможенный брокер, услуги таможенного брокера, таможенное оформление, таможенный брокер Киев, таможенный брокер Одесса, таможенный брокер Львов, таможенные услуги, международная торговля, импорт и экспорт, таможенное декларирование, брокерские услуги</t>
   </si>
   <si>
@@ -319,105 +337,109 @@
     <t>http://localhost:3000/fqas</t>
   </si>
   <si>
-    <t>Часто Задаваемые Вопросы, Что такое Часто Задаваемые Вопросы (FAQs)?, Популярные Вопросы и Ответы, Свяжитесь с Нами</t>
-  </si>
-  <si>
     <t>Часто задаваемые вопросы (FAQs)</t>
   </si>
   <si>
+    <t>Наши часто задаваемые вопросы (FAQs) - ваш источник ответов на самые важные вопросы о доставке и растаможке грузов. Развейте сомнения и узнайте больше о наших услугах. Ваша ясность - наша забота.</t>
+  </si>
+  <si>
     <t>FAQ вопросы и ответы, Информация для клиентов, Объяснение услуг, Типичные вопросы, Руководство для пользователей, Частые запросы, Подробные ответы, Помощь и советы, Клиентская поддержка</t>
   </si>
   <si>
     <t>http://localhost:3000/help</t>
   </si>
   <si>
-    <t>Помощь и Служба Поддержки, Часто Задаваемые Вопросы, Как Мы Можем Помочь?, Контакты Службы Поддержки, Заключение</t>
-  </si>
-  <si>
     <t>Помощь и Поддержка: Ваш Гид в Мире Доставки и Растаможки Грузов</t>
   </si>
   <si>
+    <t xml:space="preserve">Наши эксперты готовы помочь вам на каждом этапе доставки и растаможки грузов. Посетите страницу "Помощь" для ответов на ваши вопросы и контактов службы поддержки. Ваш комфорт и удовлетворенность - наша главная цель.
+</t>
+  </si>
+  <si>
     <t>служба поддержки, клиентская поддержка, помощь клиентам, часто задаваемые вопросы, контакты службы поддержки, поддержка клиентов, обратная связь, помощь в доставке грузов, консультация клиентов, техническая поддержка</t>
   </si>
   <si>
     <t>http://localhost:3000/cookies</t>
   </si>
   <si>
-    <t>Cookies, Что такое Cookies?, Использование Cookies, Типы Cookies, Управление Cookies, Заключение</t>
-  </si>
-  <si>
     <t>Cookies</t>
   </si>
   <si>
+    <t>Узнайте, как мы используем cookies для улучшения вашего опыта на нашем сайте. Наши файлы cookies помогают нам анализировать и оптимизировать услуги доставки и растаможки грузов. Мы ценим вашу прозрачность и комфорт в онлайн-взаимодействии с нами.</t>
+  </si>
+  <si>
     <t>05.10.23</t>
   </si>
   <si>
     <t>http://localhost:3000/terms_conditions</t>
   </si>
   <si>
-    <t>Условия использования, Правила Использования, Ответственность, Изменения в Условиях, Свяжитесь с Нами, Заключение</t>
-  </si>
-  <si>
     <t>Условия использования</t>
   </si>
   <si>
+    <t>Наши Условия использования - ваша карта  к безопасной и надежной доставке и растаможке грузов. Ознакомьтесь с нашими правилами перед воспользованием нашими услугами. Ваша безопасность и удовлетворенность - наш приоритет.</t>
+  </si>
+  <si>
     <t>условия использования, условия обслуживания, политика использования, соглашение о пользовании, правила пользования, соглашение об услугах, правила пользования сайтом, пользовательское соглашение, условия обеспечения безопасности, правила безопасности, условия доставки, соглашение о растаможке, правила обработки данных</t>
   </si>
   <si>
     <t>http://localhost:3000/privacy_policy</t>
   </si>
   <si>
-    <t>Политика Конфиденциальности, Собор Информации, Использование Информации, Защита Информации, Доступ и Контроль, Связь с Нами, Изменения в Политике Конфиденциальности, Заключение</t>
-  </si>
-  <si>
     <t>Политика конфиденциальности</t>
   </si>
   <si>
+    <t>Наша Политика Конфиденциальности - ваша гарантия прозрачности и безопасности. Мы заботимся о конфиденциальности ваших данных в мире доставки и растаможки грузов. Узнайте, как мы обеспечиваем защиту ваших личных сведений. Ваша конфиденциальность - наш приоритет</t>
+  </si>
+  <si>
     <t>Конфиденциальность данных, защита личных данных, обработка персональных данных, политика конфиденциальности сайта, согласие на обработку данных, правила конфиденциальности, GDPR, защита конфиденциальности, информационная безопасность, обеспечение конфиденциальности, политика конфиденциальности клиентов</t>
   </si>
   <si>
     <t>http://localhost:3000/about_us</t>
   </si>
   <si>
-    <t>Транс-Хоуп  , Наши Принципы, Наши Услуги, Контакты</t>
+    <t>О нас</t>
   </si>
   <si>
     <t>О Нас: Транс-Хоуп, Ваш Надежный Партнер в Доставке и Растаможке Грузов</t>
   </si>
   <si>
-    <t>О нас</t>
+    <t>Транс-Хоуп, Ваш Надежный Партнер в Доставке и Растаможке Грузов следующими видами транспорта: Авиа перевозки, Авто доставка грузов, Морские контейнерные перевозки, Таможенное оформление грузов.</t>
   </si>
   <si>
     <t>http://localhost:3000/customs_clearance</t>
   </si>
   <si>
-    <t>Таможенное оформление: Быстро, Надежно, Профессионально , Почему Выбирают Нас, Почему Таможенное Оформление Важно</t>
+    <t>Таможенное Оформление Киев, Одесса, Львов</t>
   </si>
   <si>
     <t>Профессиональное Таможенное Оформление Киев, Одесса, Львов. Быстро и Надежно</t>
   </si>
   <si>
+    <t>Услуги таможенного оформления для бизнеса в Киеве, Одессе и Львове. Быстрое и точное оформление документов, расчёт платежей, сопровождение грузов. Надёжность и профессионализм гарантированы!</t>
+  </si>
+  <si>
     <t>http://localhost:3000/container_delivery</t>
   </si>
   <si>
-    <t xml:space="preserve">Морские контейнерные перевозки: Надежность и Экономия, Преимущества морских контейнерных перевозок </t>
-  </si>
-  <si>
     <t>Морские контейнерные перевозки: Надежность и Экономия</t>
   </si>
   <si>
+    <t>Морские контейнерные перевозки. Мы предлагаем полный спектр услуг: от консультаций и бронирования, до доставки "от двери до двери".</t>
+  </si>
+  <si>
     <t>морские контейнерные перевозки, морские перевозки, морская логистика, контейнерные перевозки, грузоперевозки по морю, международные морские перевозки, контейнерные морские перевозки, морской транспорт, грузоперевозки контейнерами, морская экспедиция, морские линии, морские перевозки товаров, морская доставка, морские грузовые перевозки, контейнерная логистика, морская транспортировка, морские грузовые услуги.</t>
   </si>
   <si>
     <t>http://localhost:3000/truck_delivery</t>
   </si>
   <si>
-    <t>Авто перевозки, Преимущества авто перевозок:, Выбор верного партнера:, Выводы:</t>
-  </si>
-  <si>
     <t>Авто Перевозки: Надежность и Эффективность в Транспортировке Вашего Груза</t>
   </si>
   <si>
+    <t>Авто перевозки: надежная доставка грузов по Украине и странам Европы. Мы предлагаем быструю и эффективную логистику для вашего бизнеса. Доверьте нам перевозку ваших грузов и убедитесь в надежности наших услуг. Получите бесперебойное решение для транспортировки вашего груза с нами.</t>
+  </si>
+  <si>
     <t>Автомобильные грузоперевозки, Грузовые перевозки по дороге, Логистика автоперевозок, Грузовики для перевозки грузов, Автотранспортные услуги, Доставка грузов автомобилем, Автодоставка грузов,Транспортировка товаров автотранспортом, Доставка грузов по стране, Дорожные перевозки, Автомобильные логистические услуги, Перевозка товаров по дороге, Грузоперевозки на автомобилях, Автофургоны для перевозки грузов, Профессиональные авто перевозки,</t>
   </si>
   <si>
@@ -427,12 +449,12 @@
     <t>http://localhost:3000/air_delivery</t>
   </si>
   <si>
-    <t>Авиа перевозки, Польза авиа перевозок:, Выводы:</t>
-  </si>
-  <si>
     <t>Авиа перевозки: быстро, надежно и эффективно</t>
   </si>
   <si>
+    <t>Авиа перевозки: быстрая доставка, глобальное покрытие и надежность. Доставляем грузы по всему миру в кратчайшие сроки. Узнайте, как авиаперевозки могут улучшить ваш бизнес уже сегодня.</t>
+  </si>
+  <si>
     <t>Авиа перевозки, Грузовые авиаперевозки, Международные авиа перевозки, Перевозка грузов по воздуху, Логистика авиаперевозок, Экспресс-доставка авиа, Авиафрахт, Авиаперевозка грузов, Авиа логистика, Воздушные перевозки грузов, Авиаперевозки из Китая, Авиаперевозки в Европу, Грузовая авиадоставка, Авиаперевозки опасных грузов</t>
   </si>
   <si>
@@ -442,48 +464,51 @@
     <t>http://localhost:3000/sea_container_freight_rate</t>
   </si>
   <si>
-    <t>Стоимость Перевозки Контейнера Морем</t>
-  </si>
-  <si>
     <t>Стоимость Перевозки Контейнера Морем: Надежные и Конкурентоспособные Тарифы</t>
   </si>
   <si>
+    <t xml:space="preserve">Узнайте о стоимости перевозки контейнера морем. Наши конкурентоспособные тарифы обеспечивают надежную и эффективную доставку вашего груза в любую точку мира. Мы предлагаем прозрачные цены и высокое качество обслуживания для грузоперевозок морским путем. </t>
+  </si>
+  <si>
     <t>цена морской перевозки контейнеров, тарифы на морскую перевозку, стоимость грузоперевозок морем, расценки на перевозку морским контейнером, тарифы на контейнерные перевозки</t>
   </si>
   <si>
     <t>http://localhost:3000/container_freight_rate</t>
   </si>
   <si>
-    <t>Фрахт Контейнера: Ключевые Аспекты и Стоимость Грузоперевозок</t>
-  </si>
-  <si>
     <t>Фрахт контейнера: Точные цены и гибкие условия для грузоперевозок</t>
   </si>
   <si>
+    <t>Узнайте актуальные цены на фрахт морских контейнеров и преимущества наших  грузоперевозок. Мы предоставляем надежные и конкурентоспособные цены на фрахт контейнеров, позволяя вам оптимизировать бюджет и обеспечивать безопасную доставку грузов по всему миру.</t>
+  </si>
+  <si>
     <t>стоимость фрахта морских контейнеров, расценки на контейнерный фрахт, тарифы на грузоперевозки контейнерами, цены на морские перевозки, фрахтовые тарифы</t>
   </si>
   <si>
     <t>http://localhost:3000/intermodal_transportation</t>
   </si>
   <si>
-    <t>Интермодальные Перевозки</t>
-  </si>
-  <si>
     <t>Интермодальные Перевозки: Эффективность и Надежность в Глобальной Логистике</t>
   </si>
   <si>
+    <t>Интермодальные перевозки: оптимальное сочетание разных видов транспорта для эффективной доставки грузов. Наши интермодальные решения обеспечивают надежность и гибкость в мировой логистике. Узнайте, как вы можете сэкономить на перевозках, выбирая нашу систему доставки.</t>
+  </si>
+  <si>
     <t>интермодальные грузоперевозки, мультимодальные перевозки, комбинированные перевозки, перевозка грузов разными видами транспорта</t>
   </si>
   <si>
     <t>http://localhost:3000/customs_broker_services_price</t>
   </si>
   <si>
-    <t>Услуги таможенного брокера цена</t>
+    <t>Цены на Услуги Таможенного Брокера: Прозрачность и Эффективность в Киеве</t>
   </si>
   <si>
     <t>Цены на Услуги Таможенного Брокера: Прозрачность и Эффективность</t>
   </si>
   <si>
+    <t>Узнайте, какие цены на услуги таможенного брокера в Киеве. Прозрачные и конкурентоспособные тарифы для эффективной таможенной поддержки вашего бизнеса. Мы делаем таможенные процедуры доступными и выгодными.</t>
+  </si>
+  <si>
     <t>цена на таможенные услуги, стоимость брокерских услуг, тарифы на таможенное оформление, расценки таможенного брокера, ценовая политика таможенных услуг, плата за брокерские услуги, таможенное оформление цена, стоимость услуг таможенного брокера</t>
   </si>
   <si>
@@ -493,10 +518,10 @@
     <t>http://localhost:3000/customs_broker_kyiv</t>
   </si>
   <si>
-    <t>Таможенный Брокер Киев, Преимущества Сотрудничества с Таможенным Брокером в Киеве</t>
-  </si>
-  <si>
     <t>Таможенный брокер Киев: Эффективная Таможенная Поддержка для Вашего Бизнеса</t>
+  </si>
+  <si>
+    <t>Ваш надежный таможенный брокер в Киеве для международных грузовых операций. Оптимизируйте таможенные процедуры и обеспечьте соблюдение норм и правил с профессиональной помощью. Мы делаем вашу международную торговлю проще и эффективнее</t>
   </si>
   <si>
     <t>экспорт и импорт грузов, таможенное консультирование, брокерские услуги для международной торговли, таможенные процедуры, таможенные консультации, таможенный консультант, брокерские услуги Киев, таможенные сборы, таможенное оформление товаров</t>
@@ -524,36 +549,39 @@
     <t>http://localhost:3000/info/customs_regimes_in_ukraine</t>
   </si>
   <si>
-    <t xml:space="preserve">Таможенные режимы в Украине </t>
-  </si>
-  <si>
     <t>Таможенные режимы в Украине</t>
   </si>
   <si>
+    <t xml:space="preserve">Узнайте о ключевых таможенных режимах в Украине с нашим исчерпывающим обзором. Изучите особенности таможенных процедур, включая режимы таможенного оформления, временного ввоза, экспорта и импорта товаров. </t>
+  </si>
+  <si>
     <t>таможенные режимы, Украина, таможенное оформление, временный ввоз, экспорт, импорт, таможенное законодательство, таможенные процедуры, таможенные правила</t>
   </si>
   <si>
     <t>http://localhost:3000/info/customs_useful</t>
   </si>
   <si>
-    <t>Таможня, полезные материалы</t>
-  </si>
-  <si>
     <t>Таможенное оформление: Ключевая информация и Экспертные Советы</t>
   </si>
   <si>
+    <t>Узнайте все тонкости таможенного оформления на одной странице! Наша информация поможет вам понять как грамотно и быстро пройти через процесс таможенных формальностей. Экспертные советы и шаг за шагом руководство ждут вас здесь.</t>
+  </si>
+  <si>
     <t>Таможня полезное</t>
   </si>
   <si>
     <t>http://localhost:3000/info/certificate_of_origin_base</t>
   </si>
   <si>
-    <t>Страна происхождения товара и Сертификат происхождения</t>
+    <t>Сертификат происхождения основы</t>
   </si>
   <si>
     <t>Сертификат происхождения, основы по определению страны происхождения</t>
   </si>
   <si>
+    <t xml:space="preserve">Сертификат Происхождение продукции - основы. Ваш эффективный инструмент подтверждения качества и происхождения товаров на международном рынке. </t>
+  </si>
+  <si>
     <t>сертификат, происхождение товаров, международная торговля, документация, экспорт, признание, тарифные преференции, торговые соглашения, экспортер, таможня</t>
   </si>
   <si>
@@ -563,18 +591,24 @@
     <t>Сертификат происхождения EUR.1  (Евро 1 Euro 1)</t>
   </si>
   <si>
+    <t>Подробная информация о форме сертификата EUR.1 и процедуре его получения. Оптимизируйте ваш международный бизнес с Сертификатом происхождения EUR.1</t>
+  </si>
+  <si>
     <t>сертификат происхождения, EUR.1, международные торговые соглашения, преференциальное происхождение, таможенные пошлины, торговые льготы, экспортные документы, таможенные процедуры, торговля международными партнерами, таможенное оформление</t>
   </si>
   <si>
     <t>http://localhost:3000/info/sections_purchase_sale_agreement</t>
   </si>
   <si>
-    <t>Рекомендации по оформлению международных договоров</t>
+    <t>Разделы договора Купли-Продажи</t>
   </si>
   <si>
     <t>Разделы договора Купли-Продажи ВЭД</t>
   </si>
   <si>
+    <t>Ключевые разделы договора купли-продажи и их значении для успешного заключения сделок ВЭД.</t>
+  </si>
+  <si>
     <t>договор купли-продажи, разделы, условия поставки, цена товара, платежи, риски, выполнение контракта, защита интересов</t>
   </si>
   <si>
@@ -584,78 +618,96 @@
     <t>Порядок заполнения таможенной декларации - Украина</t>
   </si>
   <si>
+    <t xml:space="preserve">Узнайте о порядке заполнения таможенной декларации для успешного прохождения таможенного контроля. </t>
+  </si>
+  <si>
     <t>таможенная декларация, таможенные формальности, импорт, экспорт, таможенный контроль, таможенное оформление, таможенные процедуры, документы, таможенные правила</t>
   </si>
   <si>
     <t>http://localhost:3000/info/customs_clearance_package_export</t>
   </si>
   <si>
-    <t>Документы для экспорта товаров</t>
+    <t>Пакет документов для экспорта</t>
   </si>
   <si>
     <t>Пакет документов для экспорта товаров</t>
   </si>
   <si>
+    <t>Погрузитесь в мир международной торговли с нашим полным пакетом документов для экспорта товаров. Уникальная статья предоставляет подробный перечень ключевых документов, необходимых для успешного экспорта товаров.</t>
+  </si>
+  <si>
     <t>экспортная документация, формализация экспорта, документы для ввоза и вывоза, таможенная документация, экспортные процедуры, экспортные формы, международная торговая документация, бумаги для глобальной торговли, экспортные лицензии, транспортные документы для экспорта, документы для международных перевозок, внешнеторговая документация, таможенные формы для экспорта.</t>
   </si>
   <si>
     <t>http://localhost:3000/info/customs_clearance_package_import</t>
   </si>
   <si>
-    <t>Пакет документов при импорте товаров</t>
+    <t>Пакет документов для импорта</t>
   </si>
   <si>
     <t>Пакет документов для импорта товаров</t>
   </si>
   <si>
+    <t xml:space="preserve">Пакет документов для импорта. Ознакомьтесь с ключевым перечнем документов, необходимых для успешного импорта товаров. </t>
+  </si>
+  <si>
     <t>импортная документация, документы для ввоза товаров, таможенная документация, импортные процедуры, импортные формы, международная торговая документация, импортные лицензии, транспортные документы для импорта, документы для международных перевозок, внешнеторговая документация</t>
   </si>
   <si>
     <t>http://localhost:3000/info/customs_clearance_package_cost</t>
   </si>
   <si>
-    <t>Пакет документов для подтверждения таможенной стоимости при импорте товаров.</t>
+    <t>Документы для подтверждения Таможенной стоимости товаров</t>
   </si>
   <si>
     <t>Пакет Документов для подтверждения Таможенной стоимости товаров. Максимизируйте Прозрачность вашего бизнеса с Транс-Хоуп.</t>
   </si>
   <si>
+    <t xml:space="preserve">Узнайте ключевые документы, необходимые для подтверждения таможенной стоимости и обеспечения гладкого процесса международной торговли. </t>
+  </si>
+  <si>
     <t>формальности ценообразования на границе, таможенные сертификаты стоимости товаров, документы для международного таможенного оформления, утверждение стоимости при ввозе, таможенные процедуры и стоимость, инвойс и упаковочные листы для таможни, сертификаты происхождения для таможенни</t>
   </si>
   <si>
     <t>http://localhost:3000/info/customs_broker_license</t>
   </si>
   <si>
-    <t>Получение лицензии на осуществление таможенно брокерской деятельности в Украине регулируеться следующими приказами:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Лицензия таможенного брокера </t>
   </si>
   <si>
+    <t>Получение лицензии таможенного брокера в Украине: Процедуры и Требования. Сроки действия лицензии на осуществление таможенной деятельности.</t>
+  </si>
+  <si>
     <t>лицензия, таможенный брокер, получение, условия, регулирование, законодательство, таможенные процедуры, бизнес, экспорт, импорт</t>
   </si>
   <si>
     <t>http://localhost:3000/info/example_of_foreign_economic_contract</t>
   </si>
   <si>
-    <t>Внешнеэкономический Договор Купли-Продажи, образец</t>
+    <t>Внешнеэкономический Договор Купли-Продажи</t>
   </si>
   <si>
     <t>Внешнеэкономический Договор Купли-Продажи, образец: Раскройте Ваши Мировые Возможности</t>
   </si>
   <si>
+    <t>Внешнеэкономический договор – ключ к успешной международной торговле. Скачать образец. Ваш бизнес готов к новым горизонтам – начните с подписания внешнеэкономических договоров сегодня.</t>
+  </si>
+  <si>
     <t>международные договоры, торговые контракты, экспортно-импортные соглашения, мировая торговля, международная коммерция</t>
   </si>
   <si>
     <t>http://localhost:3000/info/customs_accreditation</t>
   </si>
   <si>
-    <t xml:space="preserve">Аккредитация на таможне онлайн </t>
+    <t>Аккредитация на таможне онлайн</t>
   </si>
   <si>
     <t>Аккредитация на таможне онлайн: первые шаги для успешного ведения международного бизнеса</t>
   </si>
   <si>
+    <t xml:space="preserve">Получите аккредитацию быстро и легко, минимизируя бумажную волокиту. Начните онлайн-аккредитацию на таможне прямо сейчас! </t>
+  </si>
+  <si>
     <t>аккредитация таможня, онлайн аккредитация, процедура аккредитации, таможенные процедуры, документы для таможни, таможенные услуги</t>
   </si>
   <si>
@@ -668,12 +720,16 @@
     <t>http://localhost:3000/blog/konteinernie-perevozki-gdinya</t>
   </si>
   <si>
-    <t>Особенности доставки в Украину через Гдыню: , Советы по оптимизации контейнерных перевозок через Гдыню:</t>
+    <t>Контейнерные перевозки Гдыня. Контейнерные перевозки из любой точки Мира в  Европу  а затем в Украину через порт Гдыня</t>
   </si>
   <si>
     <t>Контейнерные перевозки Гдыня.</t>
   </si>
   <si>
+    <t xml:space="preserve">Контейнерные перевозки Гдыня – это надежный и экономичный способ доставки грузов из Европы в Украину. Выбирайте контейнерные перевозки через Гдыню для оптимизации своих логистических процессов.
+</t>
+  </si>
+  <si>
     <t>рузоперевозки, морские перевозки, контейнерный транспорт, порт Гдыня, морской порт, контейнерные терминалы, Польша, Европа, контейнерные перевозки Гдыня</t>
   </si>
   <si>
@@ -686,18 +742,21 @@
     <t>Как расчитать стоимость растаможки и узнать сумму таможенных платежей на таможню.</t>
   </si>
   <si>
+    <t>Узнайте, как рассчитать стоимость растаможки и определить сумму таможенных платежей. Подробные шаги по расчету таможенных пошлин, НДС и других таможенных сборов.</t>
+  </si>
+  <si>
     <t>расчет стоимости растаможки, сумма таможенных платежей, таможенные пошлины, НДС на таможне, таможенные сборы, оформление груза на таможне, импортные пошлины, таможенные платежи, как рассчитать растаможку, расчет таможенных пошлин</t>
   </si>
   <si>
     <t>http://localhost:3000/blog/the-economics-of-low-cost-delivery-services</t>
   </si>
   <si>
-    <t xml:space="preserve">Лоукостеры авиа доставки грузов в Украину., Снижение расходов , Повышение доходов </t>
-  </si>
-  <si>
     <t>Экономика лоукостеров по доставке грузов: как авиакомпании снижают расходы и повышают доходы.</t>
   </si>
   <si>
+    <t>Экономика лоукостеров по доставке грузов: узнайте, как авиакомпании снижают расходы и повышают доходы за счет оптимизации маршрутов.</t>
+  </si>
+  <si>
     <t>экономика лоукостеров, доставка грузов, снижение расходов, повышение доходов, оптимизация маршрутов, современные технологии в авиации, минимизация операционных затрат, конкурентоспособность авиакомпаний, стратегии лоукостеров, грузовые авиаперевозки</t>
   </si>
   <si>
@@ -710,6 +769,9 @@
     <t>Как подобрать таможенный код товара</t>
   </si>
   <si>
+    <t>Узнайте, как правильно подобрать таможенный код товара для успешного оформления груза. Наше руководство поможет вам разобраться в классификации товаров и выбрать подходящий код для таможенной декларации.</t>
+  </si>
+  <si>
     <t>таможенный код товара, код ТН ВЭД, классификация товаров, товарная номенклатура, код экспортного товара, импортный код, гармонизированная система, HS код, таможенная очистка, кодирование товаров, таможенные тарифы, классификатор товаров, товарная группа, декларирование товара, таможенная декларация</t>
   </si>
   <si>
@@ -722,6 +784,9 @@
     <t>Способы доставки контейнеров из Китая в Украину</t>
   </si>
   <si>
+    <t>Узнайте о различных способах транспортировки контейнеров из Китая в Украину: морские, железнодорожные и мультимодальные перевозки. Эффективные логистические решения для вашего бизнеса.</t>
+  </si>
+  <si>
     <t>способы доставки контейнеров, виды транспортировки контейнеров, логистика контейнерных перевозок, методы перевозки контейнеров, транспортировка грузов в контейнерах, контейнерные перевозки, варианты транспортировки контейнеров, эффективные способы доставки контейнеров</t>
   </si>
   <si>
@@ -734,6 +799,9 @@
     <t>Как выбрать КАРГО перевозчика и получить много проблем.</t>
   </si>
   <si>
+    <t>Что выбрать, Карго доставку или растаможить в белу? Давайте обсудим преимущества и недостатки каждого способа.</t>
+  </si>
+  <si>
     <t>карго доставка, карго перевозчик, растаможка товаров, доставка из китая, белая растаможка, сборные грузы из китая</t>
   </si>
   <si>
@@ -743,9 +811,15 @@
     <t>http://localhost:3000/blog/how-to-write-an-inquiry-to-a-chinese-supplier</t>
   </si>
   <si>
+    <t>Как написать запрос китайскому поставщику товаров? Подробный гайд с примерами.</t>
+  </si>
+  <si>
     <t>Как написать запрос китайскому поставщику товаров?</t>
   </si>
   <si>
+    <t>Подробный гайд с примерами. Как написать запрос китайскому поставщику товаров. Образец письма китайскому поставщику.</t>
+  </si>
+  <si>
     <t>запрос поставщику, письмо продавцу, китайские поставщики, закупка в китае</t>
   </si>
   <si>
@@ -755,6 +829,9 @@
     <t>http://localhost:3000/blog/searching-for-suppliers-in-china</t>
   </si>
   <si>
+    <t>Поиск поставщиков в Китае, пошаговая инструкция, как найти поставщика в Китае. На примере сайта alibaba.com.</t>
+  </si>
+  <si>
     <t>Поиск поставщиков в Китае</t>
   </si>
   <si>
@@ -773,6 +850,9 @@
     <t>Таможенные платежи Украины в августе 2024 года достигли 51,1 млрд грн</t>
   </si>
   <si>
+    <t>В августе 2024 года в доход государства направлено 51,1 млрд грн таможенных платежей, что на 3,2 млрд грн больше, чем в предыдущем месяце. Узнайте, какие факторы повлияли на рост поступлений.</t>
+  </si>
+  <si>
     <t>таможенные платежи, Украина, август 2024, государственный бюджет, льготы, налогооблагаемый импорт</t>
   </si>
   <si>
@@ -782,6 +862,9 @@
     <t>Ограничение движения на границе с Венгрией на две недели</t>
   </si>
   <si>
+    <t>С 19 сентября на пункте пропуска Чоп-Захонь временно ограничат движение транспорта из-за ремонтных работ. Узнайте подробности.</t>
+  </si>
+  <si>
     <t>граница, Венгрия, ограничения, Чоп-Захонь, ремонт</t>
   </si>
   <si>
@@ -791,6 +874,9 @@
     <t>Крушение сухогруза Pallada у берегов Турции: все подробности инцидента</t>
   </si>
   <si>
+    <t>Узнайте о крушении сухогруза Pallada, его последствиях для порта и местных жителей, а также о действиях спасательных служб.</t>
+  </si>
+  <si>
     <t>сухогруз Pallada, крушение, Турция, спасательная операция, шторм, последствия</t>
   </si>
   <si>
@@ -800,6 +886,9 @@
     <t>Коррупционный скандал: почему MSC отказалась от захода в Одессу</t>
   </si>
   <si>
+    <t>Компания MSC отменила заход в порт Одессы из-за коррупционных проверок. Как это решение влияет на Украину и ее экономику?</t>
+  </si>
+  <si>
     <t>MSC, коррупция, порт Одессы, задержка грузов, международная логистика</t>
   </si>
   <si>
@@ -807,6 +896,9 @@
   </si>
   <si>
     <t>Экспорт портов Большой Одессы превысил 60 миллионов тонн за 2024 год</t>
+  </si>
+  <si>
+    <t>Порты Большой Одессы за 11 месяцев 2024 года экспортировали более 60 миллионов тонн грузов, несмотря на атаки и сложные условия, уделяя особое внимание поставкам агропродукции.</t>
   </si>
   <si>
     <t>Одесса, порты, экспорт, агропродукция, зерно, Украина, продовольствие</t>
@@ -1186,10 +1278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:G74"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1208,24 +1300,27 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -1233,1285 +1328,1477 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>38</v>
       </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="G13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="G14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="G15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="G16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="G17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="G19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="G20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="G21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="G22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E23" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="G23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>93</v>
       </c>
-      <c r="E24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>87</v>
-      </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E25" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="G25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="G26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>106</v>
       </c>
-      <c r="E27" t="s">
-        <v>107</v>
-      </c>
-      <c r="F27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>100</v>
-      </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E28" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="G28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E29" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F29" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="G29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" t="s">
+        <v>125</v>
+      </c>
+      <c r="G30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>118</v>
       </c>
-      <c r="E30" t="s">
-        <v>119</v>
-      </c>
-      <c r="F30" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>112</v>
-      </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E31" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="G31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B32" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E32" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B33" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E33" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F33" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="G33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B34" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E34" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F34" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="G34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E35" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F35" t="s">
-        <v>140</v>
+        <v>146</v>
+      </c>
+      <c r="G35" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E38" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F38" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="G38" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E39" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F39" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="G39" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E40" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F40" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="G40" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E41" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F41" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="G41" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B42" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E42" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F42" t="s">
-        <v>162</v>
+        <v>169</v>
+      </c>
+      <c r="G42" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B45" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="E45" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="F45" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="G45" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B46" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E46" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="F46" t="s">
+        <v>179</v>
+      </c>
+      <c r="G46" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>164</v>
-      </c>
       <c r="B47" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E47" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="F47" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="G47" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B48" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="E48" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F48" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="G48" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B49" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>191</v>
       </c>
       <c r="E49" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="F49" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="G49" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B50" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="E50" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="F50" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="G50" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B51" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="E51" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="F51" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="G51" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B52" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="E52" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="F52" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="G52" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B53" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="E53" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="F53" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="G53" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B54" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="E54" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="F54" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="G54" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B55" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="E55" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="F55" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="G55" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B56" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="E56" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="F56" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="G56" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B57" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="E57" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="F57" t="s">
-        <v>214</v>
+        <v>230</v>
+      </c>
+      <c r="G57" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="B60" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="E60" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="F60" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="G60" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="B61" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>241</v>
       </c>
       <c r="E61" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="F61" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="G61" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="B62" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="E62" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="F62" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+      <c r="G62" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="B63" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="E63" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="F63" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="G63" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="B64" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="E64" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="F64" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="G64" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="B65" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>260</v>
       </c>
       <c r="E65" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="F65" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+      <c r="G65" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="B66" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E66" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="F66" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="G66" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="B67" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="E67" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="F67" t="s">
-        <v>248</v>
+        <v>271</v>
+      </c>
+      <c r="G67" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="B70" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>277</v>
       </c>
       <c r="E70" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="F70" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+      <c r="G70" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="B71" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>281</v>
       </c>
       <c r="E71" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="F71" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="G71" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="B72" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>285</v>
       </c>
       <c r="E72" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="F72" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="G72" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="B73" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>289</v>
       </c>
       <c r="E73" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="F73" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+      <c r="G73" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="B74" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>293</v>
       </c>
       <c r="E74" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="F74" t="s">
-        <v>265</v>
+        <v>294</v>
+      </c>
+      <c r="G74" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/allPages/allPagesRU.xlsx
+++ b/allPages/allPagesRU.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="311">
   <si>
     <t>Date</t>
   </si>
@@ -22,12 +22,12 @@
     <t>Status</t>
   </si>
   <si>
+    <t>SEO Title</t>
+  </si>
+  <si>
     <t>Title</t>
   </si>
   <si>
-    <t>SEO Title</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -116,15 +116,6 @@
   </si>
   <si>
     <t>таможенное оформление грузов, инструкции по доставке грузов, логистика и таможенное оформление, успешная доставка грузов, как доставить груз через таможню</t>
-  </si>
-  <si>
-    <t>09.08.24</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/test</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
   <si>
     <t>23.10.23</t>
@@ -398,24 +389,24 @@
     <t>http://localhost:3000/about_us</t>
   </si>
   <si>
+    <t>О Нас: Транс-Хоуп, Ваш Надежный Партнер в Доставке и Растаможке Грузов</t>
+  </si>
+  <si>
     <t>О нас</t>
   </si>
   <si>
-    <t>О Нас: Транс-Хоуп, Ваш Надежный Партнер в Доставке и Растаможке Грузов</t>
-  </si>
-  <si>
     <t>Транс-Хоуп, Ваш Надежный Партнер в Доставке и Растаможке Грузов следующими видами транспорта: Авиа перевозки, Авто доставка грузов, Морские контейнерные перевозки, Таможенное оформление грузов.</t>
   </si>
   <si>
     <t>http://localhost:3000/customs_clearance</t>
   </si>
   <si>
+    <t>Профессиональное Таможенное Оформление Киев, Одесса, Львов. Быстро и Надежно</t>
+  </si>
+  <si>
     <t>Таможенное Оформление Киев, Одесса, Львов</t>
   </si>
   <si>
-    <t>Профессиональное Таможенное Оформление Киев, Одесса, Львов. Быстро и Надежно</t>
-  </si>
-  <si>
     <t>Услуги таможенного оформления для бизнеса в Киеве, Одессе и Львове. Быстрое и точное оформление документов, расчёт платежей, сопровождение грузов. Надёжность и профессионализм гарантированы!</t>
   </si>
   <si>
@@ -500,12 +491,12 @@
     <t>http://localhost:3000/customs_broker_services_price</t>
   </si>
   <si>
+    <t>Цены на Услуги Таможенного Брокера: Прозрачность и Эффективность</t>
+  </si>
+  <si>
     <t>Цены на Услуги Таможенного Брокера: Прозрачность и Эффективность в Киеве</t>
   </si>
   <si>
-    <t>Цены на Услуги Таможенного Брокера: Прозрачность и Эффективность</t>
-  </si>
-  <si>
     <t>Узнайте, какие цены на услуги таможенного брокера в Киеве. Прозрачные и конкурентоспособные тарифы для эффективной таможенной поддержки вашего бизнеса. Мы делаем таможенные процедуры доступными и выгодными.</t>
   </si>
   <si>
@@ -536,10 +527,10 @@
     <t>http://localhost:3000/info/customs_control</t>
   </si>
   <si>
+    <t>Таможенный контроль: Правила, Процедуры, Значение - Важный Этап Импорта и Экспорта</t>
+  </si>
+  <si>
     <t>Таможенный контроль</t>
-  </si>
-  <si>
-    <t>Таможенный контроль: Правила, Процедуры, Значение - Важный Этап Импорта и Экспорта</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -573,12 +564,12 @@
     <t>http://localhost:3000/info/certificate_of_origin_base</t>
   </si>
   <si>
+    <t>Сертификат происхождения, основы по определению страны происхождения</t>
+  </si>
+  <si>
     <t>Сертификат происхождения основы</t>
   </si>
   <si>
-    <t>Сертификат происхождения, основы по определению страны происхождения</t>
-  </si>
-  <si>
     <t xml:space="preserve">Сертификат Происхождение продукции - основы. Ваш эффективный инструмент подтверждения качества и происхождения товаров на международном рынке. </t>
   </si>
   <si>
@@ -600,12 +591,12 @@
     <t>http://localhost:3000/info/sections_purchase_sale_agreement</t>
   </si>
   <si>
+    <t>Разделы договора Купли-Продажи ВЭД</t>
+  </si>
+  <si>
     <t>Разделы договора Купли-Продажи</t>
   </si>
   <si>
-    <t>Разделы договора Купли-Продажи ВЭД</t>
-  </si>
-  <si>
     <t>Ключевые разделы договора купли-продажи и их значении для успешного заключения сделок ВЭД.</t>
   </si>
   <si>
@@ -627,12 +618,12 @@
     <t>http://localhost:3000/info/customs_clearance_package_export</t>
   </si>
   <si>
+    <t>Пакет документов для экспорта товаров</t>
+  </si>
+  <si>
     <t>Пакет документов для экспорта</t>
   </si>
   <si>
-    <t>Пакет документов для экспорта товаров</t>
-  </si>
-  <si>
     <t>Погрузитесь в мир международной торговли с нашим полным пакетом документов для экспорта товаров. Уникальная статья предоставляет подробный перечень ключевых документов, необходимых для успешного экспорта товаров.</t>
   </si>
   <si>
@@ -642,12 +633,12 @@
     <t>http://localhost:3000/info/customs_clearance_package_import</t>
   </si>
   <si>
+    <t>Пакет документов для импорта товаров</t>
+  </si>
+  <si>
     <t>Пакет документов для импорта</t>
   </si>
   <si>
-    <t>Пакет документов для импорта товаров</t>
-  </si>
-  <si>
     <t xml:space="preserve">Пакет документов для импорта. Ознакомьтесь с ключевым перечнем документов, необходимых для успешного импорта товаров. </t>
   </si>
   <si>
@@ -657,12 +648,12 @@
     <t>http://localhost:3000/info/customs_clearance_package_cost</t>
   </si>
   <si>
+    <t>Пакет Документов для подтверждения Таможенной стоимости товаров. Максимизируйте Прозрачность вашего бизнеса с Транс-Хоуп.</t>
+  </si>
+  <si>
     <t>Документы для подтверждения Таможенной стоимости товаров</t>
   </si>
   <si>
-    <t>Пакет Документов для подтверждения Таможенной стоимости товаров. Максимизируйте Прозрачность вашего бизнеса с Транс-Хоуп.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Узнайте ключевые документы, необходимые для подтверждения таможенной стоимости и обеспечения гладкого процесса международной торговли. </t>
   </si>
   <si>
@@ -684,12 +675,12 @@
     <t>http://localhost:3000/info/example_of_foreign_economic_contract</t>
   </si>
   <si>
+    <t>Внешнеэкономический Договор Купли-Продажи, образец: Раскройте Ваши Мировые Возможности</t>
+  </si>
+  <si>
     <t>Внешнеэкономический Договор Купли-Продажи</t>
   </si>
   <si>
-    <t>Внешнеэкономический Договор Купли-Продажи, образец: Раскройте Ваши Мировые Возможности</t>
-  </si>
-  <si>
     <t>Внешнеэкономический договор – ключ к успешной международной торговле. Скачать образец. Ваш бизнес готов к новым горизонтам – начните с подписания внешнеэкономических договоров сегодня.</t>
   </si>
   <si>
@@ -699,12 +690,12 @@
     <t>http://localhost:3000/info/customs_accreditation</t>
   </si>
   <si>
+    <t>Аккредитация на таможне онлайн: первые шаги для успешного ведения международного бизнеса</t>
+  </si>
+  <si>
     <t>Аккредитация на таможне онлайн</t>
   </si>
   <si>
-    <t>Аккредитация на таможне онлайн: первые шаги для успешного ведения международного бизнеса</t>
-  </si>
-  <si>
     <t xml:space="preserve">Получите аккредитацию быстро и легко, минимизируя бумажную волокиту. Начните онлайн-аккредитацию на таможне прямо сейчас! </t>
   </si>
   <si>
@@ -714,16 +705,31 @@
     <t>Blogs</t>
   </si>
   <si>
+    <t>03.11.24</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/blog/10_rasprostranennykh_kulturnykh_oshibok_biznesmenov_v_Kitae</t>
+  </si>
+  <si>
+    <t>10 распространенных культурных ошибок, совершаемых иностранными бизнесменами в Китае</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 распространенных культурных ошибок, которые совершают иностранные бизнесмены в Китае. </t>
+  </si>
+  <si>
+    <t>культурные ошибки в Китае, ошибки иностранных бизнесменов в Китае, китайский деловой этикет, как вести бизнес в Китае, китайская культура в бизнесе, ошибки в китайском бизнесе, деловые связи в Китае, гость и этикет в Китае, культура «гуаньси», правила общения с китайскими партнерами</t>
+  </si>
+  <si>
     <t>28.06.24</t>
   </si>
   <si>
     <t>http://localhost:3000/blog/konteinernie-perevozki-gdinya</t>
   </si>
   <si>
+    <t>Контейнерные перевозки Гдыня.</t>
+  </si>
+  <si>
     <t>Контейнерные перевозки Гдыня. Контейнерные перевозки из любой точки Мира в  Европу  а затем в Украину через порт Гдыня</t>
-  </si>
-  <si>
-    <t>Контейнерные перевозки Гдыня.</t>
   </si>
   <si>
     <t xml:space="preserve">Контейнерные перевозки Гдыня – это надежный и экономичный способ доставки грузов из Европы в Украину. Выбирайте контейнерные перевозки через Гдыню для оптимизации своих логистических процессов.
@@ -811,12 +817,12 @@
     <t>http://localhost:3000/blog/how-to-write-an-inquiry-to-a-chinese-supplier</t>
   </si>
   <si>
+    <t>Как написать запрос китайскому поставщику товаров?</t>
+  </si>
+  <si>
     <t>Как написать запрос китайскому поставщику товаров? Подробный гайд с примерами.</t>
   </si>
   <si>
-    <t>Как написать запрос китайскому поставщику товаров?</t>
-  </si>
-  <si>
     <t>Подробный гайд с примерами. Как написать запрос китайскому поставщику товаров. Образец письма китайскому поставщику.</t>
   </si>
   <si>
@@ -829,16 +835,55 @@
     <t>http://localhost:3000/blog/searching-for-suppliers-in-china</t>
   </si>
   <si>
+    <t>Поиск поставщиков в Китае</t>
+  </si>
+  <si>
     <t>Поиск поставщиков в Китае, пошаговая инструкция, как найти поставщика в Китае. На примере сайта alibaba.com.</t>
   </si>
   <si>
-    <t>Поиск поставщиков в Китае</t>
-  </si>
-  <si>
     <t>поиск поставщиков, alibaba.com, поставка товаров из китая, товары</t>
   </si>
   <si>
     <t>News</t>
+  </si>
+  <si>
+    <t>12.10.24</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/news/ukrainian_clothing_producers_vs_second_hand</t>
+  </si>
+  <si>
+    <t>Украинские производители одежды требуют ограничить секонд-хенд для поддержки местной индустрии</t>
+  </si>
+  <si>
+    <t>Украинские производители модной индустрии высказываются против массового ввоза секонд-хенда, что тормозит развитие местного производства и приводит к контрабанде нового товара. Подробности в статье.</t>
+  </si>
+  <si>
+    <t>украинская одежда, секонд-хенд, ограничение секонд-хенда, местное производство, контрабанда, текстиль, одежда</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/news/customs_violations_17_billion_uah_2024</t>
+  </si>
+  <si>
+    <t>Таможеные нарушения на сумму 17 млрд грн: итоги первых 9 месяцев 2024 года</t>
+  </si>
+  <si>
+    <t>За 9 месяцев 2024 года украинские таможни выявили 7 259 нарушений на сумму 17 млрд грн. Значительные штрафы и конфискации - подробнее в статье.</t>
+  </si>
+  <si>
+    <t>таможня, нарушения, штрафы, конфискация, 2024, Украина, товары, правонарушения, стягивания, суд</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/news/ukraine_customs_progress_european_standards</t>
+  </si>
+  <si>
+    <t>Украина делает значительный прогресс в направлении европейских таможенных стандартов</t>
+  </si>
+  <si>
+    <t>Украина уверенно движется к европейским таможенным стандартам, принимая ключевые реформы и улучшая сотрудничество с ЕС, несмотря на военные вызовы.</t>
+  </si>
+  <si>
+    <t>Украина, таможенные стандарты, евроинтеграция, ЕС, таможенные реформы, NCTS, АЕО</t>
   </si>
   <si>
     <t>28.09.24</t>
@@ -1278,7 +1323,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G77"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1464,490 +1509,490 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
         <v>71</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
         <v>72</v>
       </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" t="s">
         <v>73</v>
       </c>
-      <c r="E18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F22" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G25" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F27" t="s">
+        <v>114</v>
+      </c>
+      <c r="G27" t="s">
         <v>113</v>
-      </c>
-      <c r="G27" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G28" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E30" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F30" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G30" t="s">
         <v>126</v>
@@ -1955,39 +2000,39 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G31" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E32" t="s">
         <v>133</v>
@@ -1996,809 +2041,878 @@
         <v>134</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="B34" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E34" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F34" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G34" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>143</v>
-      </c>
-      <c r="B35" t="s">
         <v>144</v>
       </c>
-      <c r="C35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" t="s">
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>145</v>
       </c>
-      <c r="E35" t="s">
-        <v>145</v>
-      </c>
-      <c r="F35" t="s">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
         <v>146</v>
       </c>
-      <c r="G35" t="s">
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="E37" t="s">
+        <v>147</v>
+      </c>
+      <c r="F37" t="s">
         <v>148</v>
+      </c>
+      <c r="G37" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B38" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F38" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G38" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C39" t="s">
         <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G39" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E40" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F40" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G40" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="B41" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E41" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F41" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G41" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>166</v>
-      </c>
-      <c r="B42" t="s">
         <v>167</v>
       </c>
-      <c r="C42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" t="s">
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>168</v>
       </c>
-      <c r="E42" t="s">
-        <v>168</v>
-      </c>
-      <c r="F42" t="s">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>169</v>
       </c>
-      <c r="G42" t="s">
+      <c r="B44" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
         <v>171</v>
+      </c>
+      <c r="E44" t="s">
+        <v>172</v>
+      </c>
+      <c r="F44" t="s">
+        <v>171</v>
+      </c>
+      <c r="G44" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B45" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C45" t="s">
         <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E45" t="s">
         <v>175</v>
       </c>
       <c r="F45" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G45" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B46" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C46" t="s">
         <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E46" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F46" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G46" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B47" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C47" t="s">
         <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E47" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F47" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G47" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B48" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C48" t="s">
         <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E48" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F48" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G48" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B49" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C49" t="s">
         <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E49" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F49" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G49" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B50" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C50" t="s">
         <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E50" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F50" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G50" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B51" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C51" t="s">
         <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E51" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F51" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G51" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B52" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C52" t="s">
         <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E52" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F52" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G52" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B53" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C53" t="s">
         <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E53" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F53" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G53" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B54" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C54" t="s">
         <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E54" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F54" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G54" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B55" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C55" t="s">
         <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E55" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F55" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G55" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B56" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C56" t="s">
         <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E56" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F56" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G56" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>172</v>
-      </c>
-      <c r="B57" t="s">
-        <v>227</v>
-      </c>
-      <c r="C57" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" t="s">
         <v>228</v>
       </c>
-      <c r="E57" t="s">
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>229</v>
       </c>
-      <c r="F57" t="s">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>230</v>
       </c>
-      <c r="G57" t="s">
+      <c r="B59" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" t="s">
         <v>232</v>
+      </c>
+      <c r="E59" t="s">
+        <v>232</v>
+      </c>
+      <c r="F59" t="s">
+        <v>233</v>
+      </c>
+      <c r="G59" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B60" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C60" t="s">
         <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E60" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F60" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G60" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B61" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C61" t="s">
         <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E61" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F61" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G61" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B62" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C62" t="s">
         <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E62" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F62" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G62" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B63" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C63" t="s">
         <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E63" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F63" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G63" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B64" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C64" t="s">
         <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E64" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F64" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G64" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B65" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C65" t="s">
         <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E65" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F65" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G65" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B66" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C66" t="s">
         <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E66" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F66" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G66" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B67" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C67" t="s">
         <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E67" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F67" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G67" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B70" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C70" t="s">
         <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E70" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F70" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G70" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B71" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C71" t="s">
         <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E71" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F71" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G71" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B72" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C72" t="s">
         <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E72" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F72" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G72" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="B73" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C73" t="s">
         <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E73" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F73" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G73" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="B74" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C74" t="s">
         <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E74" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F74" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G74" t="s">
-        <v>295</v>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>290</v>
+      </c>
+      <c r="B75" t="s">
+        <v>299</v>
+      </c>
+      <c r="C75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" t="s">
+        <v>300</v>
+      </c>
+      <c r="E75" t="s">
+        <v>300</v>
+      </c>
+      <c r="F75" t="s">
+        <v>301</v>
+      </c>
+      <c r="G75" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>290</v>
+      </c>
+      <c r="B76" t="s">
+        <v>303</v>
+      </c>
+      <c r="C76" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" t="s">
+        <v>304</v>
+      </c>
+      <c r="E76" t="s">
+        <v>304</v>
+      </c>
+      <c r="F76" t="s">
+        <v>305</v>
+      </c>
+      <c r="G76" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>290</v>
+      </c>
+      <c r="B77" t="s">
+        <v>307</v>
+      </c>
+      <c r="C77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" t="s">
+        <v>308</v>
+      </c>
+      <c r="E77" t="s">
+        <v>308</v>
+      </c>
+      <c r="F77" t="s">
+        <v>309</v>
+      </c>
+      <c r="G77" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/allPages/allPagesRU.xlsx
+++ b/allPages/allPagesRU.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="310">
   <si>
     <t>Date</t>
   </si>
@@ -40,7 +40,7 @@
     <t>14.08.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/business_in_ukraine</t>
+    <t>https://t-h-logistics.com/business_in_ukraine</t>
   </si>
   <si>
     <t>x</t>
@@ -55,7 +55,7 @@
     <t>торговый посредник, внешнеторговый агент, экспортный консультант, импортный брокер, ВЭД консультации, мировая торговля, международный бизнес, торговля с Украиной, внешнеэкономическая деятельность</t>
   </si>
   <si>
-    <t>http://localhost:3000/customs</t>
+    <t>https://t-h-logistics.com/customs</t>
   </si>
   <si>
     <t>Таможенный брокер и таможенное оформление в Киеве, Одессе, Львове</t>
@@ -67,7 +67,7 @@
     <t>таможенное оформление Киев, услуги таможенного оформления Львов, таможенный брокер Одесса, расчёт таможенных платежей, сопровождение грузов, таможенные документы, таможенные услуги</t>
   </si>
   <si>
-    <t>http://localhost:3000/sea</t>
+    <t>https://t-h-logistics.com/sea</t>
   </si>
   <si>
     <t>Морские контейнерные перевозки и доставка грузов из США и Китая в Украину</t>
@@ -79,7 +79,7 @@
     <t>доставка грузов из США в Украину, морские контейнерные перевозки, доставка из Китая в Украину, контейнерные перевозки Украина, морская доставка из Китая, международные морские перевозки</t>
   </si>
   <si>
-    <t>http://localhost:3000/air</t>
+    <t>https://t-h-logistics.com/air</t>
   </si>
   <si>
     <t>Авиа доставка и авиаперевозки грузов в Украину: быстро и надежно</t>
@@ -91,7 +91,7 @@
     <t>авиаперевозки грузов Украина, авиа доставка в Украину, международная авиадоставка, транспортировка грузов самолетом, авиа логистика Украина, Экспресс-доставка авиа, Авиафрахт, Авиаперевозка грузов, Авиа логистика, Воздушные перевозки грузов, Авиаперевозки из Китая, Авиаперевозки в Европу, Грузовая авиадоставка, Авиаперевозки опасных грузов</t>
   </si>
   <si>
-    <t>http://localhost:3000/truck</t>
+    <t>https://t-h-logistics.com/truck</t>
   </si>
   <si>
     <t>Авто перевозки и доставка грузов из Европы: быстрые и безопасные решения</t>
@@ -106,7 +106,7 @@
     <t>12.08.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/usefull</t>
+    <t>https://t-h-logistics.com/usefull</t>
   </si>
   <si>
     <t>Полезные материалы по таможенному оформлению и доставке грузов: советы и инструкции</t>
@@ -121,7 +121,7 @@
     <t>23.10.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/hr_search_in_ukraine</t>
+    <t>https://t-h-logistics.com/hr_search_in_ukraine</t>
   </si>
   <si>
     <t>Эффективный Поиск Персонала в Украине: Профессиональные HR-решения</t>
@@ -133,7 +133,7 @@
     <t>подбор персонала, рекрутинг в Украине, HR-услуги, кадровое агентство, трудоустройство в Украине, управление персоналом, поиск специалистов, кадровый консалтинг, HR-консультации, персональные ресурсы Украины</t>
   </si>
   <si>
-    <t>http://localhost:3000/tax_reporting_in_ukraine</t>
+    <t>https://t-h-logistics.com/tax_reporting_in_ukraine</t>
   </si>
   <si>
     <t>Налоговая Отчетность в Украине: Подробный Обзор и Правила Подготовки</t>
@@ -145,7 +145,7 @@
     <t>налоговая отчетность, налоговые декларации, налоговые обязательства, налоговые ставки, налоговые нормы, налоговое законодательство, бухгалтерия и налоги, налоговые изменения, налоговые обязанности, налоговое администрирование</t>
   </si>
   <si>
-    <t>http://localhost:3000/taxation_forms_in_ukraine</t>
+    <t>https://t-h-logistics.com/taxation_forms_in_ukraine</t>
   </si>
   <si>
     <t>Формы налогообложения в Украине: Как выбрать правильный налоговый режим для вашего бизнеса</t>
@@ -157,7 +157,7 @@
     <t>налоговые режимы, налоговая система, налоговые обязательства, налоговая ставка, налоговые льготы, уплата налогов, налоговая оптимизация, налоговый режим для бизнеса, налоговый учет, фискальная политика, налоговая отчетность, налоговые обязанности</t>
   </si>
   <si>
-    <t>http://localhost:3000/bank_account_in_ukraine</t>
+    <t>https://t-h-logistics.com/bank_account_in_ukraine</t>
   </si>
   <si>
     <t>Открытие и ведение банковского счета для юридических лиц в Украине: Полное руководство</t>
@@ -169,7 +169,7 @@
     <t>бизнес-счет, корпоративный счет, банковские услуги для компаний, банковское обслуживание юридических лиц, финансовая деятельность организаций, счет в банке Украины, открытие счета для предприятия, банковские услуги для фирм</t>
   </si>
   <si>
-    <t>http://localhost:3000/legal_address_in_ukraine</t>
+    <t>https://t-h-logistics.com/legal_address_in_ukraine</t>
   </si>
   <si>
     <t>Юридический Адрес в Украине: Важный Элемент Для Вашего Бизнеса</t>
@@ -181,7 +181,7 @@
     <t>адрес регистрации в Украине, регистрация юридического адреса, налоговый адрес, офисное пространство, юридическая регистрация, выбор местоположения, репутация компании, налоговые обязательства</t>
   </si>
   <si>
-    <t>http://localhost:3000/main_forms_of_ownership_in_ukraine</t>
+    <t>https://t-h-logistics.com/main_forms_of_ownership_in_ukraine</t>
   </si>
   <si>
     <t>Формы Собственности в Украине: Все, Что Вам Нужно Знать</t>
@@ -193,7 +193,7 @@
     <t>собственность в Украине, регистрация собственности, правила собственности, формы собственности в бизнесе, владение недвижимостью, собственность и налоги, виды собственности</t>
   </si>
   <si>
-    <t>http://localhost:3000/cost_of_opening_a_legal_entity_in_ukraine</t>
+    <t>https://t-h-logistics.com/cost_of_opening_a_legal_entity_in_ukraine</t>
   </si>
   <si>
     <t>Стоимость Открытия Юридического Лица в Украине: Подробный Обзор и Расчеты</t>
@@ -205,7 +205,7 @@
     <t>Создание фирмы в Украине, регистрация юридического лица, затраты на открытие компании, стоимость регистрации бизнеса, расходы на юридическое лицо, бюджет для регистрации фирмы</t>
   </si>
   <si>
-    <t>http://localhost:3000/opening_a_company_in_ukraine</t>
+    <t>https://t-h-logistics.com/opening_a_company_in_ukraine</t>
   </si>
   <si>
     <t>Открытие Фирмы в Украине: Шаг за Шагом Руководство и Советы</t>
@@ -220,13 +220,13 @@
     <t>22.10.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/trade_agent_in_ukraine</t>
+    <t>https://t-h-logistics.com/trade_agent_in_ukraine</t>
   </si>
   <si>
     <t>Торговый Агент в Украине: Эффективная Поддержка вашего ВЭД Бизнеса</t>
   </si>
   <si>
-    <t>http://localhost:3000/foreign_trade_consulting</t>
+    <t>https://t-h-logistics.com/foreign_trade_consulting</t>
   </si>
   <si>
     <t>Консультации ВЭД: Экспертное Руководство по Внешнеэкономической Деятельности</t>
@@ -241,7 +241,7 @@
     <t>21.10.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/multimodal_transportation</t>
+    <t>https://t-h-logistics.com/multimodal_transportation</t>
   </si>
   <si>
     <t>Мультимодальные Перевозки в Украине: Оптимизация Логистики для Вашего Бизнеса</t>
@@ -256,7 +256,7 @@
     <t>19.10.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/airfreight_costs</t>
+    <t>https://t-h-logistics.com/airfreight_costs</t>
   </si>
   <si>
     <t>Стоимость Авиаперевозки: Как Рассчитать и Оптимизировать Ваши  Расходы</t>
@@ -271,7 +271,7 @@
     <t>15.10.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/cargo_delivery_from_Europe</t>
+    <t>https://t-h-logistics.com/cargo_delivery_from_Europe</t>
   </si>
   <si>
     <t>Доставка Грузов из Европы: Эффективная Логистика для Вашего Бизнеса</t>
@@ -286,7 +286,7 @@
     <t>13.10.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/port_forwarding</t>
+    <t>https://t-h-logistics.com/port_forwarding</t>
   </si>
   <si>
     <t>Портовое Экспедирование в Украине – Надежная Логистика Ваших Грузов</t>
@@ -298,7 +298,7 @@
     <t>морское экспедирование, портовые услуги, экспедирование грузов в порту, портовая логистика, обработка грузов в порту, морские терминалы, портовая инфраструктура, грузы в порту, морские перевозки</t>
   </si>
   <si>
-    <t>http://localhost:3000/customs_brokerage_services_cost</t>
+    <t>https://t-h-logistics.com/customs_brokerage_services_cost</t>
   </si>
   <si>
     <t>Стоимость Услуг Таможенного Брокера в Украине: Профессиональная Помощь и Оптимизация ВЭД</t>
@@ -310,7 +310,7 @@
     <t>услуги таможенного брокера, стоимость таможенного брокера, таможенный брокер Киев, таможенный брокер Одесса, таможенный брокер Львов, услуги таможенного оформления, стоимость таможенных услуг, таможенное оформление грузов, таможенные брокеры Украина</t>
   </si>
   <si>
-    <t>http://localhost:3000/customs_broker</t>
+    <t>https://t-h-logistics.com/customs_broker</t>
   </si>
   <si>
     <t>Таможенный брокер: Профессиональные услуги в Киеве, Одессе и Львове</t>
@@ -325,7 +325,7 @@
     <t>12.10.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/fqas</t>
+    <t>https://t-h-logistics.com/fqas</t>
   </si>
   <si>
     <t>Часто задаваемые вопросы (FAQs)</t>
@@ -337,7 +337,7 @@
     <t>FAQ вопросы и ответы, Информация для клиентов, Объяснение услуг, Типичные вопросы, Руководство для пользователей, Частые запросы, Подробные ответы, Помощь и советы, Клиентская поддержка</t>
   </si>
   <si>
-    <t>http://localhost:3000/help</t>
+    <t>https://t-h-logistics.com/help</t>
   </si>
   <si>
     <t>Помощь и Поддержка: Ваш Гид в Мире Доставки и Растаможки Грузов</t>
@@ -350,7 +350,7 @@
     <t>служба поддержки, клиентская поддержка, помощь клиентам, часто задаваемые вопросы, контакты службы поддержки, поддержка клиентов, обратная связь, помощь в доставке грузов, консультация клиентов, техническая поддержка</t>
   </si>
   <si>
-    <t>http://localhost:3000/cookies</t>
+    <t>https://t-h-logistics.com/cookies</t>
   </si>
   <si>
     <t>Cookies</t>
@@ -362,7 +362,7 @@
     <t>05.10.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/terms_conditions</t>
+    <t>https://t-h-logistics.com/terms_conditions</t>
   </si>
   <si>
     <t>Условия использования</t>
@@ -374,7 +374,7 @@
     <t>условия использования, условия обслуживания, политика использования, соглашение о пользовании, правила пользования, соглашение об услугах, правила пользования сайтом, пользовательское соглашение, условия обеспечения безопасности, правила безопасности, условия доставки, соглашение о растаможке, правила обработки данных</t>
   </si>
   <si>
-    <t>http://localhost:3000/privacy_policy</t>
+    <t>https://t-h-logistics.com/privacy_policy</t>
   </si>
   <si>
     <t>Политика конфиденциальности</t>
@@ -386,7 +386,7 @@
     <t>Конфиденциальность данных, защита личных данных, обработка персональных данных, политика конфиденциальности сайта, согласие на обработку данных, правила конфиденциальности, GDPR, защита конфиденциальности, информационная безопасность, обеспечение конфиденциальности, политика конфиденциальности клиентов</t>
   </si>
   <si>
-    <t>http://localhost:3000/about_us</t>
+    <t>https://t-h-logistics.com/about_us</t>
   </si>
   <si>
     <t>О Нас: Транс-Хоуп, Ваш Надежный Партнер в Доставке и Растаможке Грузов</t>
@@ -398,7 +398,7 @@
     <t>Транс-Хоуп, Ваш Надежный Партнер в Доставке и Растаможке Грузов следующими видами транспорта: Авиа перевозки, Авто доставка грузов, Морские контейнерные перевозки, Таможенное оформление грузов.</t>
   </si>
   <si>
-    <t>http://localhost:3000/customs_clearance</t>
+    <t>https://t-h-logistics.com/customs_clearance</t>
   </si>
   <si>
     <t>Профессиональное Таможенное Оформление Киев, Одесса, Львов. Быстро и Надежно</t>
@@ -410,7 +410,7 @@
     <t>Услуги таможенного оформления для бизнеса в Киеве, Одессе и Львове. Быстрое и точное оформление документов, расчёт платежей, сопровождение грузов. Надёжность и профессионализм гарантированы!</t>
   </si>
   <si>
-    <t>http://localhost:3000/container_delivery</t>
+    <t>https://t-h-logistics.com/container_delivery</t>
   </si>
   <si>
     <t>Морские контейнерные перевозки: Надежность и Экономия</t>
@@ -422,7 +422,7 @@
     <t>морские контейнерные перевозки, морские перевозки, морская логистика, контейнерные перевозки, грузоперевозки по морю, международные морские перевозки, контейнерные морские перевозки, морской транспорт, грузоперевозки контейнерами, морская экспедиция, морские линии, морские перевозки товаров, морская доставка, морские грузовые перевозки, контейнерная логистика, морская транспортировка, морские грузовые услуги.</t>
   </si>
   <si>
-    <t>http://localhost:3000/truck_delivery</t>
+    <t>https://t-h-logistics.com/truck_delivery</t>
   </si>
   <si>
     <t>Авто Перевозки: Надежность и Эффективность в Транспортировке Вашего Груза</t>
@@ -437,7 +437,7 @@
     <t>04.09.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/air_delivery</t>
+    <t>https://t-h-logistics.com/air_delivery</t>
   </si>
   <si>
     <t>Авиа перевозки: быстро, надежно и эффективно</t>
@@ -452,7 +452,7 @@
     <t>Page Seo</t>
   </si>
   <si>
-    <t>http://localhost:3000/sea_container_freight_rate</t>
+    <t>https://t-h-logistics.com/sea_container_freight_rate</t>
   </si>
   <si>
     <t>Стоимость Перевозки Контейнера Морем: Надежные и Конкурентоспособные Тарифы</t>
@@ -464,7 +464,7 @@
     <t>цена морской перевозки контейнеров, тарифы на морскую перевозку, стоимость грузоперевозок морем, расценки на перевозку морским контейнером, тарифы на контейнерные перевозки</t>
   </si>
   <si>
-    <t>http://localhost:3000/container_freight_rate</t>
+    <t>https://t-h-logistics.com/container_freight_rate</t>
   </si>
   <si>
     <t>Фрахт контейнера: Точные цены и гибкие условия для грузоперевозок</t>
@@ -476,7 +476,7 @@
     <t>стоимость фрахта морских контейнеров, расценки на контейнерный фрахт, тарифы на грузоперевозки контейнерами, цены на морские перевозки, фрахтовые тарифы</t>
   </si>
   <si>
-    <t>http://localhost:3000/intermodal_transportation</t>
+    <t>https://t-h-logistics.com/intermodal_transportation</t>
   </si>
   <si>
     <t>Интермодальные Перевозки: Эффективность и Надежность в Глобальной Логистике</t>
@@ -488,7 +488,7 @@
     <t>интермодальные грузоперевозки, мультимодальные перевозки, комбинированные перевозки, перевозка грузов разными видами транспорта</t>
   </si>
   <si>
-    <t>http://localhost:3000/customs_broker_services_price</t>
+    <t>https://t-h-logistics.com/customs_broker_services_price</t>
   </si>
   <si>
     <t>Цены на Услуги Таможенного Брокера: Прозрачность и Эффективность</t>
@@ -506,7 +506,7 @@
     <t>08.09.23</t>
   </si>
   <si>
-    <t>http://localhost:3000/customs_broker_kyiv</t>
+    <t>https://t-h-logistics.com/customs_broker_kyiv</t>
   </si>
   <si>
     <t>Таможенный брокер Киев: Эффективная Таможенная Поддержка для Вашего Бизнеса</t>
@@ -524,7 +524,7 @@
     <t>11.05.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/info/customs_control</t>
+    <t>https://t-h-logistics.com/info/customs_control</t>
   </si>
   <si>
     <t>Таможенный контроль: Правила, Процедуры, Значение - Важный Этап Импорта и Экспорта</t>
@@ -537,7 +537,7 @@
 таможенные формальности, таможенная проверка, импортный контроль, экспортный контроль, таможенные процедуры, таможенные правила, таможенное законодательство, таможенный режим, регулирование таможенной деятельности</t>
   </si>
   <si>
-    <t>http://localhost:3000/info/customs_regimes_in_ukraine</t>
+    <t>https://t-h-logistics.com/info/customs_regimes_in_ukraine</t>
   </si>
   <si>
     <t>Таможенные режимы в Украине</t>
@@ -549,7 +549,7 @@
     <t>таможенные режимы, Украина, таможенное оформление, временный ввоз, экспорт, импорт, таможенное законодательство, таможенные процедуры, таможенные правила</t>
   </si>
   <si>
-    <t>http://localhost:3000/info/customs_useful</t>
+    <t>https://t-h-logistics.com/info/customs_useful</t>
   </si>
   <si>
     <t>Таможенное оформление: Ключевая информация и Экспертные Советы</t>
@@ -561,7 +561,7 @@
     <t>Таможня полезное</t>
   </si>
   <si>
-    <t>http://localhost:3000/info/certificate_of_origin_base</t>
+    <t>https://t-h-logistics.com/info/certificate_of_origin_base</t>
   </si>
   <si>
     <t>Сертификат происхождения, основы по определению страны происхождения</t>
@@ -576,7 +576,7 @@
     <t>сертификат, происхождение товаров, международная торговля, документация, экспорт, признание, тарифные преференции, торговые соглашения, экспортер, таможня</t>
   </si>
   <si>
-    <t>http://localhost:3000/info/certificate_of_origin_EUR.1</t>
+    <t>https://t-h-logistics.com/info/certificate_of_origin_EUR.1</t>
   </si>
   <si>
     <t>Сертификат происхождения EUR.1  (Евро 1 Euro 1)</t>
@@ -588,7 +588,7 @@
     <t>сертификат происхождения, EUR.1, международные торговые соглашения, преференциальное происхождение, таможенные пошлины, торговые льготы, экспортные документы, таможенные процедуры, торговля международными партнерами, таможенное оформление</t>
   </si>
   <si>
-    <t>http://localhost:3000/info/sections_purchase_sale_agreement</t>
+    <t>https://t-h-logistics.com/info/sections_purchase_sale_agreement</t>
   </si>
   <si>
     <t>Разделы договора Купли-Продажи ВЭД</t>
@@ -603,7 +603,7 @@
     <t>договор купли-продажи, разделы, условия поставки, цена товара, платежи, риски, выполнение контракта, защита интересов</t>
   </si>
   <si>
-    <t>http://localhost:3000/info/procedure_filling_customs_declaration</t>
+    <t>https://t-h-logistics.com/info/procedure_filling_customs_declaration</t>
   </si>
   <si>
     <t>Порядок заполнения таможенной декларации - Украина</t>
@@ -615,7 +615,7 @@
     <t>таможенная декларация, таможенные формальности, импорт, экспорт, таможенный контроль, таможенное оформление, таможенные процедуры, документы, таможенные правила</t>
   </si>
   <si>
-    <t>http://localhost:3000/info/customs_clearance_package_export</t>
+    <t>https://t-h-logistics.com/info/customs_clearance_package_export</t>
   </si>
   <si>
     <t>Пакет документов для экспорта товаров</t>
@@ -630,7 +630,7 @@
     <t>экспортная документация, формализация экспорта, документы для ввоза и вывоза, таможенная документация, экспортные процедуры, экспортные формы, международная торговая документация, бумаги для глобальной торговли, экспортные лицензии, транспортные документы для экспорта, документы для международных перевозок, внешнеторговая документация, таможенные формы для экспорта.</t>
   </si>
   <si>
-    <t>http://localhost:3000/info/customs_clearance_package_import</t>
+    <t>https://t-h-logistics.com/info/customs_clearance_package_import</t>
   </si>
   <si>
     <t>Пакет документов для импорта товаров</t>
@@ -645,7 +645,7 @@
     <t>импортная документация, документы для ввоза товаров, таможенная документация, импортные процедуры, импортные формы, международная торговая документация, импортные лицензии, транспортные документы для импорта, документы для международных перевозок, внешнеторговая документация</t>
   </si>
   <si>
-    <t>http://localhost:3000/info/customs_clearance_package_cost</t>
+    <t>https://t-h-logistics.com/info/customs_clearance_package_cost</t>
   </si>
   <si>
     <t>Пакет Документов для подтверждения Таможенной стоимости товаров. Максимизируйте Прозрачность вашего бизнеса с Транс-Хоуп.</t>
@@ -660,7 +660,7 @@
     <t>формальности ценообразования на границе, таможенные сертификаты стоимости товаров, документы для международного таможенного оформления, утверждение стоимости при ввозе, таможенные процедуры и стоимость, инвойс и упаковочные листы для таможни, сертификаты происхождения для таможенни</t>
   </si>
   <si>
-    <t>http://localhost:3000/info/customs_broker_license</t>
+    <t>https://t-h-logistics.com/info/customs_broker_license</t>
   </si>
   <si>
     <t xml:space="preserve">Лицензия таможенного брокера </t>
@@ -672,7 +672,7 @@
     <t>лицензия, таможенный брокер, получение, условия, регулирование, законодательство, таможенные процедуры, бизнес, экспорт, импорт</t>
   </si>
   <si>
-    <t>http://localhost:3000/info/example_of_foreign_economic_contract</t>
+    <t>https://t-h-logistics.com/info/example_of_foreign_economic_contract</t>
   </si>
   <si>
     <t>Внешнеэкономический Договор Купли-Продажи, образец: Раскройте Ваши Мировые Возможности</t>
@@ -687,7 +687,7 @@
     <t>международные договоры, торговые контракты, экспортно-импортные соглашения, мировая торговля, международная коммерция</t>
   </si>
   <si>
-    <t>http://localhost:3000/info/customs_accreditation</t>
+    <t>https://t-h-logistics.com/info/customs_accreditation</t>
   </si>
   <si>
     <t>Аккредитация на таможне онлайн: первые шаги для успешного ведения международного бизнеса</t>
@@ -708,7 +708,7 @@
     <t>03.11.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/blog/10_rasprostranennykh_kulturnykh_oshibok_biznesmenov_v_Kitae</t>
+    <t>https://t-h-logistics.com/blog/10_rasprostranennykh_kulturnykh_oshibok_biznesmenov_v_Kitae</t>
   </si>
   <si>
     <t>10 распространенных культурных ошибок, совершаемых иностранными бизнесменами в Китае</t>
@@ -723,7 +723,7 @@
     <t>28.06.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/blog/konteinernie-perevozki-gdinya</t>
+    <t>https://t-h-logistics.com/blog/konteinernie-perevozki-gdinya</t>
   </si>
   <si>
     <t>Контейнерные перевозки Гдыня.</t>
@@ -742,7 +742,7 @@
     <t>26.06.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/blog/kak-raschitat-stoimost-rastamozhki</t>
+    <t>https://t-h-logistics.com/blog/kak-raschitat-stoimost-rastamozhki</t>
   </si>
   <si>
     <t>Как расчитать стоимость растаможки и узнать сумму таможенных платежей на таможню.</t>
@@ -754,7 +754,7 @@
     <t>расчет стоимости растаможки, сумма таможенных платежей, таможенные пошлины, НДС на таможне, таможенные сборы, оформление груза на таможне, импортные пошлины, таможенные платежи, как рассчитать растаможку, расчет таможенных пошлин</t>
   </si>
   <si>
-    <t>http://localhost:3000/blog/the-economics-of-low-cost-delivery-services</t>
+    <t>https://t-h-logistics.com/blog/the-economics-of-low-cost-delivery-services</t>
   </si>
   <si>
     <t>Экономика лоукостеров по доставке грузов: как авиакомпании снижают расходы и повышают доходы.</t>
@@ -769,7 +769,7 @@
     <t>09.06.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/blog/how-to-find-the-customs-code-of-goods</t>
+    <t>https://t-h-logistics.com/blog/how-to-find-the-customs-code-of-goods</t>
   </si>
   <si>
     <t>Как подобрать таможенный код товара</t>
@@ -781,10 +781,10 @@
     <t>таможенный код товара, код ТН ВЭД, классификация товаров, товарная номенклатура, код экспортного товара, импортный код, гармонизированная система, HS код, таможенная очистка, кодирование товаров, таможенные тарифы, классификатор товаров, товарная группа, декларирование товара, таможенная декларация</t>
   </si>
   <si>
-    <t>04.06.24</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/blog/methods-of-transportation-containers-from-china-to-ukraine</t>
+    <t>03.06.24</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/blog/methods-of-transportation-containers-from-china-to-ukraine</t>
   </si>
   <si>
     <t>Способы доставки контейнеров из Китая в Украину</t>
@@ -796,10 +796,7 @@
     <t>способы доставки контейнеров, виды транспортировки контейнеров, логистика контейнерных перевозок, методы перевозки контейнеров, транспортировка грузов в контейнерах, контейнерные перевозки, варианты транспортировки контейнеров, эффективные способы доставки контейнеров</t>
   </si>
   <si>
-    <t>03.06.24</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/blog/how-choose-cargo-carrier-and-get-lot-problems</t>
+    <t>https://t-h-logistics.com/blog/how-choose-cargo-carrier-and-get-lot-problems</t>
   </si>
   <si>
     <t>Как выбрать КАРГО перевозчика и получить много проблем.</t>
@@ -814,7 +811,7 @@
     <t>30.05.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/blog/how-to-write-an-inquiry-to-a-chinese-supplier</t>
+    <t>https://t-h-logistics.com/blog/how-to-write-an-inquiry-to-a-chinese-supplier</t>
   </si>
   <si>
     <t>Как написать запрос китайскому поставщику товаров?</t>
@@ -832,7 +829,7 @@
     <t>22.04.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/blog/searching-for-suppliers-in-china</t>
+    <t>https://t-h-logistics.com/blog/searching-for-suppliers-in-china</t>
   </si>
   <si>
     <t>Поиск поставщиков в Китае</t>
@@ -850,7 +847,7 @@
     <t>12.10.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/news/ukrainian_clothing_producers_vs_second_hand</t>
+    <t>https://t-h-logistics.com/news/ukrainian_clothing_producers_vs_second_hand</t>
   </si>
   <si>
     <t>Украинские производители одежды требуют ограничить секонд-хенд для поддержки местной индустрии</t>
@@ -862,7 +859,7 @@
     <t>украинская одежда, секонд-хенд, ограничение секонд-хенда, местное производство, контрабанда, текстиль, одежда</t>
   </si>
   <si>
-    <t>http://localhost:3000/news/customs_violations_17_billion_uah_2024</t>
+    <t>https://t-h-logistics.com/news/customs_violations_17_billion_uah_2024</t>
   </si>
   <si>
     <t>Таможеные нарушения на сумму 17 млрд грн: итоги первых 9 месяцев 2024 года</t>
@@ -874,7 +871,7 @@
     <t>таможня, нарушения, штрафы, конфискация, 2024, Украина, товары, правонарушения, стягивания, суд</t>
   </si>
   <si>
-    <t>http://localhost:3000/news/ukraine_customs_progress_european_standards</t>
+    <t>https://t-h-logistics.com/news/ukraine_customs_progress_european_standards</t>
   </si>
   <si>
     <t>Украина делает значительный прогресс в направлении европейских таможенных стандартов</t>
@@ -889,7 +886,7 @@
     <t>28.09.24</t>
   </si>
   <si>
-    <t>http://localhost:3000/news/tamozhennye_platezhi_ukraina_avgust_2024</t>
+    <t>https://t-h-logistics.com/news/tamozhennye_platezhi_ukraina_avgust_2024</t>
   </si>
   <si>
     <t>Таможенные платежи Украины в августе 2024 года достигли 51,1 млрд грн</t>
@@ -901,7 +898,7 @@
     <t>таможенные платежи, Украина, август 2024, государственный бюджет, льготы, налогооблагаемый импорт</t>
   </si>
   <si>
-    <t>http://localhost:3000/news/ogranichenie_dvizheniya_na_granitse_s_vengeiey</t>
+    <t>https://t-h-logistics.com/news/ogranichenie_dvizheniya_na_granitse_s_vengeiey</t>
   </si>
   <si>
     <t>Ограничение движения на границе с Венгрией на две недели</t>
@@ -913,7 +910,7 @@
     <t>граница, Венгрия, ограничения, Чоп-Захонь, ремонт</t>
   </si>
   <si>
-    <t>http://localhost:3000/news/collision_of_cargo_ship_pallada_near_turkey</t>
+    <t>https://t-h-logistics.com/news/collision_of_cargo_ship_pallada_near_turkey</t>
   </si>
   <si>
     <t>Крушение сухогруза Pallada у берегов Турции: все подробности инцидента</t>
@@ -925,7 +922,7 @@
     <t>сухогруз Pallada, крушение, Турция, спасательная операция, шторм, последствия</t>
   </si>
   <si>
-    <t>http://localhost:3000/news/corruption_scandal_msc_odessa_port</t>
+    <t>https://t-h-logistics.com/news/corruption_scandal_msc_odessa_port</t>
   </si>
   <si>
     <t>Коррупционный скандал: почему MSC отказалась от захода в Одессу</t>
@@ -937,7 +934,7 @@
     <t>MSC, коррупция, порт Одессы, задержка грузов, международная логистика</t>
   </si>
   <si>
-    <t>http://localhost:3000/news/odesa_ports_export_2024</t>
+    <t>https://t-h-logistics.com/news/odesa_ports_export_2024</t>
   </si>
   <si>
     <t>Экспорт портов Большой Одессы превысил 60 миллионов тонн за 2024 год</t>
@@ -2659,260 +2656,260 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>255</v>
+      </c>
+      <c r="B65" t="s">
         <v>260</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" t="s">
         <v>261</v>
       </c>
-      <c r="C65" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
+        <v>261</v>
+      </c>
+      <c r="F65" t="s">
         <v>262</v>
       </c>
-      <c r="E65" t="s">
-        <v>262</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>263</v>
-      </c>
-      <c r="G65" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>264</v>
+      </c>
+      <c r="B66" t="s">
         <v>265</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" t="s">
         <v>266</v>
       </c>
-      <c r="C66" t="s">
-        <v>10</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>267</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>268</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>269</v>
-      </c>
-      <c r="G66" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>270</v>
+      </c>
+      <c r="B67" t="s">
         <v>271</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" t="s">
         <v>272</v>
       </c>
-      <c r="C67" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>273</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
+        <v>273</v>
+      </c>
+      <c r="G67" t="s">
         <v>274</v>
-      </c>
-      <c r="F67" t="s">
-        <v>274</v>
-      </c>
-      <c r="G67" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>276</v>
+      </c>
+      <c r="B70" t="s">
         <v>277</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" t="s">
         <v>278</v>
       </c>
-      <c r="C70" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
+        <v>278</v>
+      </c>
+      <c r="F70" t="s">
         <v>279</v>
       </c>
-      <c r="E70" t="s">
-        <v>279</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>280</v>
-      </c>
-      <c r="G70" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B71" t="s">
+        <v>281</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" t="s">
         <v>282</v>
       </c>
-      <c r="C71" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
+        <v>282</v>
+      </c>
+      <c r="F71" t="s">
         <v>283</v>
       </c>
-      <c r="E71" t="s">
-        <v>283</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>284</v>
-      </c>
-      <c r="G71" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B72" t="s">
+        <v>285</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" t="s">
         <v>286</v>
       </c>
-      <c r="C72" t="s">
-        <v>10</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
+        <v>286</v>
+      </c>
+      <c r="F72" t="s">
         <v>287</v>
       </c>
-      <c r="E72" t="s">
-        <v>287</v>
-      </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>288</v>
-      </c>
-      <c r="G72" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>289</v>
+      </c>
+      <c r="B73" t="s">
         <v>290</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" t="s">
         <v>291</v>
       </c>
-      <c r="C73" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
+        <v>291</v>
+      </c>
+      <c r="F73" t="s">
         <v>292</v>
       </c>
-      <c r="E73" t="s">
-        <v>292</v>
-      </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>293</v>
-      </c>
-      <c r="G73" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B74" t="s">
+        <v>294</v>
+      </c>
+      <c r="C74" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" t="s">
         <v>295</v>
       </c>
-      <c r="C74" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
+        <v>295</v>
+      </c>
+      <c r="F74" t="s">
         <v>296</v>
       </c>
-      <c r="E74" t="s">
-        <v>296</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>297</v>
-      </c>
-      <c r="G74" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B75" t="s">
+        <v>298</v>
+      </c>
+      <c r="C75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" t="s">
         <v>299</v>
       </c>
-      <c r="C75" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
+        <v>299</v>
+      </c>
+      <c r="F75" t="s">
         <v>300</v>
       </c>
-      <c r="E75" t="s">
-        <v>300</v>
-      </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>301</v>
-      </c>
-      <c r="G75" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B76" t="s">
+        <v>302</v>
+      </c>
+      <c r="C76" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" t="s">
         <v>303</v>
       </c>
-      <c r="C76" t="s">
-        <v>10</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
+        <v>303</v>
+      </c>
+      <c r="F76" t="s">
         <v>304</v>
       </c>
-      <c r="E76" t="s">
-        <v>304</v>
-      </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>305</v>
-      </c>
-      <c r="G76" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B77" t="s">
+        <v>306</v>
+      </c>
+      <c r="C77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" t="s">
         <v>307</v>
       </c>
-      <c r="C77" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
+        <v>307</v>
+      </c>
+      <c r="F77" t="s">
         <v>308</v>
       </c>
-      <c r="E77" t="s">
-        <v>308</v>
-      </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>309</v>
-      </c>
-      <c r="G77" t="s">
-        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/allPages/allPagesRU.xlsx
+++ b/allPages/allPagesRU.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="312">
   <si>
     <t>Date</t>
   </si>
@@ -46,6 +46,9 @@
     <t>x</t>
   </si>
   <si>
+    <t xml:space="preserve">Услуги ВЭД, доставки и растаможки грузов в Украине в городах Киев, Львов, Одесса </t>
+  </si>
+  <si>
     <t>Услуги ВЭД, доставки и растаможки грузов в Украине в городах Киев, Львов, Одесса</t>
   </si>
   <si>
@@ -80,6 +83,9 @@
   </si>
   <si>
     <t>https://t-h-logistics.com/air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Авиа доставка и авиаперевозки грузов в Украину: быстро и надежно </t>
   </si>
   <si>
     <t>Авиа доставка и авиаперевозки грузов в Украину: быстро и надежно</t>
@@ -1365,13 +1371,13 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1379,22 +1385,22 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1402,22 +1408,22 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1425,22 +1431,22 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1448,1468 +1454,1468 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F22" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G22" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E23" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F23" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G23" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E24" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F24" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G24" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E25" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E26" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F26" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E27" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F27" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G27" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E28" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F28" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G28" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E29" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F29" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G29" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E30" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G30" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B31" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E31" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F31" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B32" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E32" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F32" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G32" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B33" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E33" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F33" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G33" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B34" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E34" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F34" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G34" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E37" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F37" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G37" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E38" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F38" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G38" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C39" t="s">
         <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E39" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F39" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G39" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E40" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F40" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G40" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B41" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E41" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F41" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G41" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B44" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C44" t="s">
         <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E44" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F44" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G44" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B45" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C45" t="s">
         <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E45" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F45" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G45" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B46" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C46" t="s">
         <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E46" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F46" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G46" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B47" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C47" t="s">
         <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E47" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F47" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G47" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B48" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C48" t="s">
         <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E48" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F48" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G48" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B49" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C49" t="s">
         <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E49" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F49" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G49" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B50" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C50" t="s">
         <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E50" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F50" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G50" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B51" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C51" t="s">
         <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E51" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F51" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G51" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B52" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C52" t="s">
         <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E52" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F52" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G52" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B53" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C53" t="s">
         <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E53" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F53" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G53" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B54" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C54" t="s">
         <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E54" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F54" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G54" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B55" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C55" t="s">
         <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E55" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F55" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G55" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B56" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C56" t="s">
         <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E56" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F56" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G56" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B59" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C59" t="s">
         <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E59" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F59" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G59" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B60" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C60" t="s">
         <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E60" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F60" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G60" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B61" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C61" t="s">
         <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E61" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F61" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G61" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B62" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C62" t="s">
         <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E62" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F62" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G62" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B63" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C63" t="s">
         <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E63" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F63" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G63" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B64" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C64" t="s">
         <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E64" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F64" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G64" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B65" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C65" t="s">
         <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E65" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F65" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G65" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B66" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C66" t="s">
         <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E66" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F66" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G66" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B67" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C67" t="s">
         <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E67" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F67" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G67" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B70" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C70" t="s">
         <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E70" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F70" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G70" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B71" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C71" t="s">
         <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E71" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F71" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G71" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B72" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C72" t="s">
         <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E72" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F72" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G72" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B73" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C73" t="s">
         <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E73" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F73" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G73" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B74" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C74" t="s">
         <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E74" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F74" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G74" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B75" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C75" t="s">
         <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E75" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F75" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G75" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B76" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C76" t="s">
         <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E76" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F76" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G76" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B77" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C77" t="s">
         <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E77" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F77" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G77" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>

--- a/allPages/allPagesRU.xlsx
+++ b/allPages/allPagesRU.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="311">
   <si>
     <t>Date</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>https://t-h-logistics.com/air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Авиа доставка и авиаперевозки грузов в Украину: быстро и надежно </t>
   </si>
   <si>
     <t>Авиа доставка и авиаперевозки грузов в Украину: быстро и надежно</t>
@@ -464,10 +461,10 @@
     <t>Стоимость Перевозки Контейнера Морем: Надежные и Конкурентоспособные Тарифы</t>
   </si>
   <si>
-    <t xml:space="preserve">Узнайте о стоимости перевозки контейнера морем. Наши конкурентоспособные тарифы обеспечивают надежную и эффективную доставку вашего груза в любую точку мира. Мы предлагаем прозрачные цены и высокое качество обслуживания для грузоперевозок морским путем. </t>
-  </si>
-  <si>
-    <t>цена морской перевозки контейнеров, тарифы на морскую перевозку, стоимость грузоперевозок морем, расценки на перевозку морским контейнером, тарифы на контейнерные перевозки</t>
+    <t>Узнайте о стоимости перевозки контейнера морем. Наши конкурентоспособные тарифы обеспечивают надежную и эффективную доставку вашего груза в любую точку мира. Мы предлагаем прозрачные цены и высокое качество обслуживания для грузоперевозок морским путем.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">цена морской перевозки контейнеров, тарифы на морскую перевозку, стоимость грузоперевозок морем, расценки на перевозку морским контейнером, тарифы на контейнерные перевозки </t>
   </si>
   <si>
     <t>https://t-h-logistics.com/container_freight_rate</t>
@@ -1440,13 +1437,13 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1454,246 +1451,246 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>30</v>
-      </c>
-      <c r="G7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
         <v>34</v>
       </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>35</v>
-      </c>
-      <c r="G8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
         <v>37</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
         <v>38</v>
       </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
         <v>39</v>
       </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>40</v>
-      </c>
-      <c r="G9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
         <v>42</v>
       </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
         <v>43</v>
       </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>44</v>
-      </c>
-      <c r="G10" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
         <v>46</v>
       </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
         <v>47</v>
       </c>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>48</v>
-      </c>
-      <c r="G11" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
         <v>50</v>
       </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
         <v>51</v>
       </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>52</v>
-      </c>
-      <c r="G12" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
         <v>54</v>
       </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" t="s">
         <v>55</v>
       </c>
-      <c r="E13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>56</v>
-      </c>
-      <c r="G13" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
         <v>58</v>
       </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s">
         <v>59</v>
       </c>
-      <c r="E14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>60</v>
-      </c>
-      <c r="G14" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
         <v>62</v>
       </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
         <v>63</v>
       </c>
-      <c r="E15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>64</v>
-      </c>
-      <c r="G15" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
         <v>66</v>
       </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" t="s">
         <v>67</v>
       </c>
-      <c r="E16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>68</v>
-      </c>
-      <c r="G16" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
         <v>70</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
         <v>71</v>
       </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>72</v>
-      </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
@@ -1704,321 +1701,321 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
         <v>73</v>
       </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" t="s">
         <v>74</v>
       </c>
-      <c r="E18" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>75</v>
-      </c>
-      <c r="G18" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
         <v>77</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
         <v>78</v>
       </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" t="s">
         <v>79</v>
       </c>
-      <c r="E19" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>80</v>
-      </c>
-      <c r="G19" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
         <v>82</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
         <v>83</v>
       </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" t="s">
         <v>84</v>
       </c>
-      <c r="E20" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>85</v>
-      </c>
-      <c r="G20" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" t="s">
         <v>87</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
         <v>88</v>
       </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" t="s">
         <v>89</v>
       </c>
-      <c r="E21" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>90</v>
-      </c>
-      <c r="G21" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" t="s">
         <v>92</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
         <v>93</v>
       </c>
-      <c r="C22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" t="s">
         <v>94</v>
       </c>
-      <c r="E22" t="s">
-        <v>94</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>95</v>
-      </c>
-      <c r="G22" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
         <v>97</v>
       </c>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" t="s">
         <v>98</v>
       </c>
-      <c r="E23" t="s">
-        <v>98</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>99</v>
-      </c>
-      <c r="G23" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
         <v>101</v>
       </c>
-      <c r="C24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" t="s">
         <v>102</v>
       </c>
-      <c r="E24" t="s">
-        <v>102</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>103</v>
-      </c>
-      <c r="G24" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" t="s">
         <v>105</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
         <v>106</v>
       </c>
-      <c r="C25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" t="s">
         <v>107</v>
       </c>
-      <c r="E25" t="s">
-        <v>107</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>108</v>
-      </c>
-      <c r="G25" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
         <v>110</v>
       </c>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" t="s">
         <v>111</v>
       </c>
-      <c r="E26" t="s">
-        <v>111</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>112</v>
-      </c>
-      <c r="G26" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
         <v>114</v>
       </c>
-      <c r="C27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" t="s">
         <v>115</v>
       </c>
-      <c r="E27" t="s">
-        <v>115</v>
-      </c>
-      <c r="F27" t="s">
-        <v>116</v>
-      </c>
       <c r="G27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" t="s">
         <v>117</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
         <v>118</v>
       </c>
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" t="s">
         <v>119</v>
       </c>
-      <c r="E28" t="s">
-        <v>119</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>120</v>
-      </c>
-      <c r="G28" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
         <v>122</v>
       </c>
-      <c r="C29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" t="s">
         <v>123</v>
       </c>
-      <c r="E29" t="s">
-        <v>123</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>124</v>
-      </c>
-      <c r="G29" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
         <v>126</v>
       </c>
-      <c r="C30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>127</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>128</v>
       </c>
-      <c r="F30" t="s">
-        <v>129</v>
-      </c>
       <c r="G30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
         <v>130</v>
       </c>
-      <c r="C31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>131</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>132</v>
-      </c>
-      <c r="F31" t="s">
-        <v>133</v>
       </c>
       <c r="G31" t="s">
         <v>18</v>
@@ -2026,896 +2023,896 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
         <v>134</v>
       </c>
-      <c r="C32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" t="s">
         <v>135</v>
       </c>
-      <c r="E32" t="s">
-        <v>135</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>136</v>
-      </c>
-      <c r="G32" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
         <v>138</v>
       </c>
-      <c r="C33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
+        <v>138</v>
+      </c>
+      <c r="F33" t="s">
         <v>139</v>
       </c>
-      <c r="E33" t="s">
-        <v>139</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>140</v>
-      </c>
-      <c r="G33" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>141</v>
+      </c>
+      <c r="B34" t="s">
         <v>142</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
         <v>143</v>
       </c>
-      <c r="C34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" t="s">
         <v>144</v>
       </c>
-      <c r="E34" t="s">
-        <v>144</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>145</v>
-      </c>
-      <c r="G34" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
         <v>148</v>
       </c>
-      <c r="C37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
+        <v>148</v>
+      </c>
+      <c r="F37" t="s">
         <v>149</v>
       </c>
-      <c r="E37" t="s">
-        <v>149</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>150</v>
-      </c>
-      <c r="G37" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
         <v>152</v>
       </c>
-      <c r="C38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
+        <v>152</v>
+      </c>
+      <c r="F38" t="s">
         <v>153</v>
       </c>
-      <c r="E38" t="s">
-        <v>153</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>154</v>
-      </c>
-      <c r="G38" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
         <v>156</v>
       </c>
-      <c r="C39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
+        <v>156</v>
+      </c>
+      <c r="F39" t="s">
         <v>157</v>
       </c>
-      <c r="E39" t="s">
-        <v>157</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>158</v>
-      </c>
-      <c r="G39" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
         <v>160</v>
       </c>
-      <c r="C40" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>161</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>162</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>163</v>
-      </c>
-      <c r="G40" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>164</v>
+      </c>
+      <c r="B41" t="s">
         <v>165</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
         <v>166</v>
       </c>
-      <c r="C41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
+        <v>166</v>
+      </c>
+      <c r="F41" t="s">
         <v>167</v>
       </c>
-      <c r="E41" t="s">
-        <v>167</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>168</v>
-      </c>
-      <c r="G41" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" t="s">
         <v>171</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
         <v>172</v>
       </c>
-      <c r="C44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>173</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
+        <v>172</v>
+      </c>
+      <c r="G44" t="s">
         <v>174</v>
-      </c>
-      <c r="F44" t="s">
-        <v>173</v>
-      </c>
-      <c r="G44" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B45" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
         <v>176</v>
       </c>
-      <c r="C45" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
+        <v>176</v>
+      </c>
+      <c r="F45" t="s">
         <v>177</v>
       </c>
-      <c r="E45" t="s">
-        <v>177</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>178</v>
-      </c>
-      <c r="G45" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B46" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" t="s">
         <v>180</v>
       </c>
-      <c r="C46" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
+        <v>180</v>
+      </c>
+      <c r="F46" t="s">
         <v>181</v>
       </c>
-      <c r="E46" t="s">
-        <v>181</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>182</v>
-      </c>
-      <c r="G46" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B47" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
         <v>184</v>
       </c>
-      <c r="C47" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>185</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>186</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>187</v>
-      </c>
-      <c r="G47" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B48" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
         <v>189</v>
       </c>
-      <c r="C48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
+        <v>189</v>
+      </c>
+      <c r="F48" t="s">
         <v>190</v>
       </c>
-      <c r="E48" t="s">
-        <v>190</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>191</v>
-      </c>
-      <c r="G48" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B49" t="s">
+        <v>192</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
         <v>193</v>
       </c>
-      <c r="C49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>194</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>195</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>196</v>
-      </c>
-      <c r="G49" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B50" t="s">
+        <v>197</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
         <v>198</v>
       </c>
-      <c r="C50" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
+        <v>198</v>
+      </c>
+      <c r="F50" t="s">
         <v>199</v>
       </c>
-      <c r="E50" t="s">
-        <v>199</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>200</v>
-      </c>
-      <c r="G50" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B51" t="s">
+        <v>201</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
         <v>202</v>
       </c>
-      <c r="C51" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>203</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>204</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>205</v>
-      </c>
-      <c r="G51" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B52" t="s">
+        <v>206</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" t="s">
         <v>207</v>
       </c>
-      <c r="C52" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>208</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>209</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>210</v>
-      </c>
-      <c r="G52" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B53" t="s">
+        <v>211</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
         <v>212</v>
       </c>
-      <c r="C53" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>213</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>214</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>215</v>
-      </c>
-      <c r="G53" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B54" t="s">
+        <v>216</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" t="s">
         <v>217</v>
       </c>
-      <c r="C54" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
+        <v>217</v>
+      </c>
+      <c r="F54" t="s">
         <v>218</v>
       </c>
-      <c r="E54" t="s">
-        <v>218</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>219</v>
-      </c>
-      <c r="G54" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B55" t="s">
+        <v>220</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
         <v>221</v>
       </c>
-      <c r="C55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>222</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>223</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>224</v>
-      </c>
-      <c r="G55" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B56" t="s">
+        <v>225</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
         <v>226</v>
       </c>
-      <c r="C56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>227</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>228</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>229</v>
-      </c>
-      <c r="G56" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>231</v>
+      </c>
+      <c r="B59" t="s">
         <v>232</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" t="s">
         <v>233</v>
       </c>
-      <c r="C59" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
+        <v>233</v>
+      </c>
+      <c r="F59" t="s">
         <v>234</v>
       </c>
-      <c r="E59" t="s">
-        <v>234</v>
-      </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>235</v>
-      </c>
-      <c r="G59" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>236</v>
+      </c>
+      <c r="B60" t="s">
         <v>237</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" t="s">
         <v>238</v>
       </c>
-      <c r="C60" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>239</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>240</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>241</v>
-      </c>
-      <c r="G60" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>242</v>
+      </c>
+      <c r="B61" t="s">
         <v>243</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" t="s">
         <v>244</v>
       </c>
-      <c r="C61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
+        <v>244</v>
+      </c>
+      <c r="F61" t="s">
         <v>245</v>
       </c>
-      <c r="E61" t="s">
-        <v>245</v>
-      </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>246</v>
-      </c>
-      <c r="G61" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B62" t="s">
+        <v>247</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" t="s">
         <v>248</v>
       </c>
-      <c r="C62" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
+        <v>248</v>
+      </c>
+      <c r="F62" t="s">
         <v>249</v>
       </c>
-      <c r="E62" t="s">
-        <v>249</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>250</v>
-      </c>
-      <c r="G62" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>251</v>
+      </c>
+      <c r="B63" t="s">
         <v>252</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" t="s">
         <v>253</v>
       </c>
-      <c r="C63" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
+        <v>253</v>
+      </c>
+      <c r="F63" t="s">
         <v>254</v>
       </c>
-      <c r="E63" t="s">
-        <v>254</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>255</v>
-      </c>
-      <c r="G63" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>256</v>
+      </c>
+      <c r="B64" t="s">
         <v>257</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" t="s">
         <v>258</v>
       </c>
-      <c r="C64" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
+        <v>258</v>
+      </c>
+      <c r="F64" t="s">
         <v>259</v>
       </c>
-      <c r="E64" t="s">
-        <v>259</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>260</v>
-      </c>
-      <c r="G64" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B65" t="s">
+        <v>261</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" t="s">
         <v>262</v>
       </c>
-      <c r="C65" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
+        <v>262</v>
+      </c>
+      <c r="F65" t="s">
         <v>263</v>
       </c>
-      <c r="E65" t="s">
-        <v>263</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>264</v>
-      </c>
-      <c r="G65" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>265</v>
+      </c>
+      <c r="B66" t="s">
         <v>266</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" t="s">
         <v>267</v>
       </c>
-      <c r="C66" t="s">
-        <v>10</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>268</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>269</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>270</v>
-      </c>
-      <c r="G66" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>271</v>
+      </c>
+      <c r="B67" t="s">
         <v>272</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" t="s">
         <v>273</v>
       </c>
-      <c r="C67" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>274</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
+        <v>274</v>
+      </c>
+      <c r="G67" t="s">
         <v>275</v>
-      </c>
-      <c r="F67" t="s">
-        <v>275</v>
-      </c>
-      <c r="G67" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>277</v>
+      </c>
+      <c r="B70" t="s">
         <v>278</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" t="s">
         <v>279</v>
       </c>
-      <c r="C70" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
+        <v>279</v>
+      </c>
+      <c r="F70" t="s">
         <v>280</v>
       </c>
-      <c r="E70" t="s">
-        <v>280</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>281</v>
-      </c>
-      <c r="G70" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B71" t="s">
+        <v>282</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" t="s">
         <v>283</v>
       </c>
-      <c r="C71" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
+        <v>283</v>
+      </c>
+      <c r="F71" t="s">
         <v>284</v>
       </c>
-      <c r="E71" t="s">
-        <v>284</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>285</v>
-      </c>
-      <c r="G71" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B72" t="s">
+        <v>286</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" t="s">
         <v>287</v>
       </c>
-      <c r="C72" t="s">
-        <v>10</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
+        <v>287</v>
+      </c>
+      <c r="F72" t="s">
         <v>288</v>
       </c>
-      <c r="E72" t="s">
-        <v>288</v>
-      </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>289</v>
-      </c>
-      <c r="G72" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>290</v>
+      </c>
+      <c r="B73" t="s">
         <v>291</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" t="s">
         <v>292</v>
       </c>
-      <c r="C73" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
+        <v>292</v>
+      </c>
+      <c r="F73" t="s">
         <v>293</v>
       </c>
-      <c r="E73" t="s">
-        <v>293</v>
-      </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>294</v>
-      </c>
-      <c r="G73" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B74" t="s">
+        <v>295</v>
+      </c>
+      <c r="C74" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" t="s">
         <v>296</v>
       </c>
-      <c r="C74" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
+        <v>296</v>
+      </c>
+      <c r="F74" t="s">
         <v>297</v>
       </c>
-      <c r="E74" t="s">
-        <v>297</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>298</v>
-      </c>
-      <c r="G74" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B75" t="s">
+        <v>299</v>
+      </c>
+      <c r="C75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" t="s">
         <v>300</v>
       </c>
-      <c r="C75" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
+        <v>300</v>
+      </c>
+      <c r="F75" t="s">
         <v>301</v>
       </c>
-      <c r="E75" t="s">
-        <v>301</v>
-      </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>302</v>
-      </c>
-      <c r="G75" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B76" t="s">
+        <v>303</v>
+      </c>
+      <c r="C76" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" t="s">
         <v>304</v>
       </c>
-      <c r="C76" t="s">
-        <v>10</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
+        <v>304</v>
+      </c>
+      <c r="F76" t="s">
         <v>305</v>
       </c>
-      <c r="E76" t="s">
-        <v>305</v>
-      </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>306</v>
-      </c>
-      <c r="G76" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B77" t="s">
+        <v>307</v>
+      </c>
+      <c r="C77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" t="s">
         <v>308</v>
       </c>
-      <c r="C77" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
+        <v>308</v>
+      </c>
+      <c r="F77" t="s">
         <v>309</v>
       </c>
-      <c r="E77" t="s">
-        <v>309</v>
-      </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>310</v>
-      </c>
-      <c r="G77" t="s">
-        <v>311</v>
       </c>
     </row>
   </sheetData>

--- a/allPages/allPagesRU.xlsx
+++ b/allPages/allPagesRU.xlsx
@@ -46,9 +46,6 @@
     <t>x</t>
   </si>
   <si>
-    <t xml:space="preserve">Услуги ВЭД, доставки и растаможки грузов в Украине в городах Киев, Львов, Одесса </t>
-  </si>
-  <si>
     <t>Услуги ВЭД, доставки и растаможки грузов в Украине в городах Киев, Львов, Одесса</t>
   </si>
   <si>
@@ -714,6 +711,9 @@
     <t>https://t-h-logistics.com/blog/10_rasprostranennykh_kulturnykh_oshibok_biznesmenov_v_Kitae</t>
   </si>
   <si>
+    <t xml:space="preserve">10 распространенных культурных ошибок, совершаемых иностранными бизнесменами в Китае </t>
+  </si>
+  <si>
     <t>10 распространенных культурных ошибок, совершаемых иностранными бизнесменами в Китае</t>
   </si>
   <si>
@@ -729,7 +729,7 @@
     <t>https://t-h-logistics.com/blog/konteinernie-perevozki-gdinya</t>
   </si>
   <si>
-    <t>Контейнерные перевозки Гдыня.</t>
+    <t xml:space="preserve">Контейнерные перевозки Гдыня. </t>
   </si>
   <si>
     <t>Контейнерные перевозки Гдыня. Контейнерные перевозки из любой точки Мира в  Европу  а затем в Украину через порт Гдыня</t>
@@ -1368,13 +1368,13 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1382,22 +1382,22 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1405,22 +1405,22 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1428,22 +1428,22 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1451,1086 +1451,1086 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>29</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
         <v>33</v>
       </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
         <v>38</v>
       </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>39</v>
-      </c>
-      <c r="G9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
         <v>41</v>
       </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
         <v>42</v>
       </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>43</v>
-      </c>
-      <c r="G10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
         <v>45</v>
       </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
         <v>46</v>
       </c>
-      <c r="E11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>47</v>
-      </c>
-      <c r="G11" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
         <v>49</v>
       </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
         <v>50</v>
       </c>
-      <c r="E12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>51</v>
-      </c>
-      <c r="G12" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
         <v>53</v>
       </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" t="s">
         <v>54</v>
       </c>
-      <c r="E13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>55</v>
-      </c>
-      <c r="G13" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
         <v>57</v>
       </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" t="s">
         <v>58</v>
       </c>
-      <c r="E14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>59</v>
-      </c>
-      <c r="G14" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
         <v>61</v>
       </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" t="s">
         <v>62</v>
       </c>
-      <c r="E15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>63</v>
-      </c>
-      <c r="G15" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
         <v>65</v>
       </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" t="s">
         <v>66</v>
       </c>
-      <c r="E16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>67</v>
-      </c>
-      <c r="G16" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
         <v>69</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
         <v>70</v>
       </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>71</v>
-      </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
         <v>13</v>
-      </c>
-      <c r="G17" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
         <v>72</v>
       </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" t="s">
         <v>73</v>
       </c>
-      <c r="E18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>74</v>
-      </c>
-      <c r="G18" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" t="s">
         <v>76</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
         <v>77</v>
       </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" t="s">
         <v>78</v>
       </c>
-      <c r="E19" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>79</v>
-      </c>
-      <c r="G19" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" t="s">
         <v>81</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
         <v>82</v>
       </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" t="s">
         <v>83</v>
       </c>
-      <c r="E20" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>84</v>
-      </c>
-      <c r="G20" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" t="s">
         <v>86</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
         <v>87</v>
       </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" t="s">
         <v>88</v>
       </c>
-      <c r="E21" t="s">
-        <v>88</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>89</v>
-      </c>
-      <c r="G21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" t="s">
         <v>91</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
         <v>92</v>
       </c>
-      <c r="C22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" t="s">
         <v>93</v>
       </c>
-      <c r="E22" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>94</v>
-      </c>
-      <c r="G22" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
         <v>96</v>
       </c>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" t="s">
         <v>97</v>
       </c>
-      <c r="E23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>98</v>
-      </c>
-      <c r="G23" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
         <v>100</v>
       </c>
-      <c r="C24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" t="s">
         <v>101</v>
       </c>
-      <c r="E24" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>102</v>
-      </c>
-      <c r="G24" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" t="s">
         <v>104</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
         <v>105</v>
       </c>
-      <c r="C25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" t="s">
         <v>106</v>
       </c>
-      <c r="E25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>107</v>
-      </c>
-      <c r="G25" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
         <v>109</v>
       </c>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" t="s">
         <v>110</v>
       </c>
-      <c r="E26" t="s">
-        <v>110</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>111</v>
-      </c>
-      <c r="G26" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
         <v>113</v>
       </c>
-      <c r="C27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" t="s">
         <v>114</v>
       </c>
-      <c r="E27" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" t="s">
-        <v>115</v>
-      </c>
       <c r="G27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" t="s">
         <v>116</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
         <v>117</v>
       </c>
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" t="s">
         <v>118</v>
       </c>
-      <c r="E28" t="s">
-        <v>118</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>119</v>
-      </c>
-      <c r="G28" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
         <v>121</v>
       </c>
-      <c r="C29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" t="s">
         <v>122</v>
       </c>
-      <c r="E29" t="s">
-        <v>122</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>123</v>
-      </c>
-      <c r="G29" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
         <v>125</v>
       </c>
-      <c r="C30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>126</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>127</v>
       </c>
-      <c r="F30" t="s">
-        <v>128</v>
-      </c>
       <c r="G30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
         <v>129</v>
       </c>
-      <c r="C31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>130</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>131</v>
       </c>
-      <c r="F31" t="s">
-        <v>132</v>
-      </c>
       <c r="G31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
         <v>133</v>
       </c>
-      <c r="C32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
+        <v>133</v>
+      </c>
+      <c r="F32" t="s">
         <v>134</v>
       </c>
-      <c r="E32" t="s">
-        <v>134</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>135</v>
-      </c>
-      <c r="G32" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
         <v>137</v>
       </c>
-      <c r="C33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33" t="s">
         <v>138</v>
       </c>
-      <c r="E33" t="s">
-        <v>138</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>139</v>
-      </c>
-      <c r="G33" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>140</v>
+      </c>
+      <c r="B34" t="s">
         <v>141</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
         <v>142</v>
       </c>
-      <c r="C34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
+        <v>142</v>
+      </c>
+      <c r="F34" t="s">
         <v>143</v>
       </c>
-      <c r="E34" t="s">
-        <v>143</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>144</v>
-      </c>
-      <c r="G34" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s">
+        <v>146</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
         <v>147</v>
       </c>
-      <c r="C37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
+        <v>147</v>
+      </c>
+      <c r="F37" t="s">
         <v>148</v>
       </c>
-      <c r="E37" t="s">
-        <v>148</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>149</v>
-      </c>
-      <c r="G37" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B38" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
         <v>151</v>
       </c>
-      <c r="C38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
+        <v>151</v>
+      </c>
+      <c r="F38" t="s">
         <v>152</v>
       </c>
-      <c r="E38" t="s">
-        <v>152</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>153</v>
-      </c>
-      <c r="G38" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B39" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
         <v>155</v>
       </c>
-      <c r="C39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
+        <v>155</v>
+      </c>
+      <c r="F39" t="s">
         <v>156</v>
       </c>
-      <c r="E39" t="s">
-        <v>156</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>157</v>
-      </c>
-      <c r="G39" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
         <v>159</v>
       </c>
-      <c r="C40" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>160</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>161</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>162</v>
-      </c>
-      <c r="G40" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>163</v>
+      </c>
+      <c r="B41" t="s">
         <v>164</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
         <v>165</v>
       </c>
-      <c r="C41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
+        <v>165</v>
+      </c>
+      <c r="F41" t="s">
         <v>166</v>
       </c>
-      <c r="E41" t="s">
-        <v>166</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>167</v>
-      </c>
-      <c r="G41" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>169</v>
+      </c>
+      <c r="B44" t="s">
         <v>170</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
         <v>171</v>
       </c>
-      <c r="C44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>172</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
+        <v>171</v>
+      </c>
+      <c r="G44" t="s">
         <v>173</v>
-      </c>
-      <c r="F44" t="s">
-        <v>172</v>
-      </c>
-      <c r="G44" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B45" t="s">
+        <v>174</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
         <v>175</v>
       </c>
-      <c r="C45" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
+        <v>175</v>
+      </c>
+      <c r="F45" t="s">
         <v>176</v>
       </c>
-      <c r="E45" t="s">
-        <v>176</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>177</v>
-      </c>
-      <c r="G45" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B46" t="s">
+        <v>178</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" t="s">
         <v>179</v>
       </c>
-      <c r="C46" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
+        <v>179</v>
+      </c>
+      <c r="F46" t="s">
         <v>180</v>
       </c>
-      <c r="E46" t="s">
-        <v>180</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>181</v>
-      </c>
-      <c r="G46" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B47" t="s">
+        <v>182</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
         <v>183</v>
       </c>
-      <c r="C47" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>184</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>185</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>186</v>
-      </c>
-      <c r="G47" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B48" t="s">
+        <v>187</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
         <v>188</v>
       </c>
-      <c r="C48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
+        <v>188</v>
+      </c>
+      <c r="F48" t="s">
         <v>189</v>
       </c>
-      <c r="E48" t="s">
-        <v>189</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>190</v>
-      </c>
-      <c r="G48" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B49" t="s">
+        <v>191</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
         <v>192</v>
       </c>
-      <c r="C49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>193</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>194</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>195</v>
-      </c>
-      <c r="G49" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B50" t="s">
+        <v>196</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
         <v>197</v>
       </c>
-      <c r="C50" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
+        <v>197</v>
+      </c>
+      <c r="F50" t="s">
         <v>198</v>
       </c>
-      <c r="E50" t="s">
-        <v>198</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>199</v>
-      </c>
-      <c r="G50" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B51" t="s">
+        <v>200</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
         <v>201</v>
       </c>
-      <c r="C51" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>202</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>203</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>204</v>
-      </c>
-      <c r="G51" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B52" t="s">
+        <v>205</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" t="s">
         <v>206</v>
       </c>
-      <c r="C52" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>207</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>208</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>209</v>
-      </c>
-      <c r="G52" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B53" t="s">
+        <v>210</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
         <v>211</v>
       </c>
-      <c r="C53" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>212</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>213</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>214</v>
-      </c>
-      <c r="G53" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B54" t="s">
+        <v>215</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" t="s">
         <v>216</v>
       </c>
-      <c r="C54" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
+        <v>216</v>
+      </c>
+      <c r="F54" t="s">
         <v>217</v>
       </c>
-      <c r="E54" t="s">
-        <v>217</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>218</v>
-      </c>
-      <c r="G54" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B55" t="s">
+        <v>219</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
         <v>220</v>
       </c>
-      <c r="C55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>221</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>222</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>223</v>
-      </c>
-      <c r="G55" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B56" t="s">
+        <v>224</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
         <v>225</v>
       </c>
-      <c r="C56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>226</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>227</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>228</v>
-      </c>
-      <c r="G56" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>230</v>
+      </c>
+      <c r="B59" t="s">
         <v>231</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" t="s">
         <v>232</v>
-      </c>
-      <c r="C59" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" t="s">
-        <v>233</v>
       </c>
       <c r="E59" t="s">
         <v>233</v>
